--- a/src/test/resources/TestDriver/TestSBO_Replay_Monthly_RC/Model/SBO_MODEL_EVENTS_Replay_Monthly.xlsx
+++ b/src/test/resources/TestDriver/TestSBO_Replay_Monthly_RC/Model/SBO_MODEL_EVENTS_Replay_Monthly.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arahmed\OneDrive - SS&amp;C Technologies, Inc\Desktop\Pers\fyntrac-data-main\fyntrac-data-main\src\test\resources\TestDriver\TestSBO_Replay_Monthly_RC\Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E09B5B59-B3B5-4FAA-92CC-C5EB02CC89A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5102CF9F-9624-4497-8A3D-A4FDA9F95E1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TRANX" sheetId="27" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="85">
   <si>
     <t>Amount</t>
   </si>
@@ -307,7 +307,7 @@
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="#,##0.0000_);[Red]\(#,##0.0000\)"/>
-    <numFmt numFmtId="170" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
   <fonts count="13" x14ac:knownFonts="1">
     <font>
@@ -861,7 +861,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1413,7 +1413,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1472,7 +1472,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:I7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1594,10 +1594,10 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:I49"/>
+  <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48"/>
+    <sheetView topLeftCell="D22" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33:G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1682,7 +1682,7 @@
         <v>100</v>
       </c>
       <c r="I6" s="49">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -1777,59 +1777,56 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="72">
-        <v>44712</v>
-      </c>
-      <c r="B11" s="73">
-        <v>44712</v>
-      </c>
-      <c r="C11" s="6" t="s">
+    <row r="12" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="A12" s="83" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="84" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="85" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="81" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="81" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="85" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="86" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="89">
+        <v>44651</v>
+      </c>
+      <c r="B15" s="90">
+        <v>44635</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="53">
+      <c r="D15" s="6">
         <v>1</v>
       </c>
-      <c r="E11" s="74"/>
-      <c r="F11" s="74"/>
-      <c r="G11" s="74"/>
-      <c r="H11" s="74"/>
-      <c r="I11" s="49">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="A13" s="83" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="84" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="85" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="81" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="81" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" s="85" t="s">
-        <v>24</v>
-      </c>
-      <c r="F15" s="86" t="s">
-        <v>30</v>
-      </c>
+      <c r="E15" s="91">
+        <v>1500</v>
+      </c>
+      <c r="F15" s="91"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="89">
         <v>44651</v>
       </c>
       <c r="B16" s="90">
-        <v>44635</v>
+        <v>44645</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>29</v>
@@ -1837,113 +1834,118 @@
       <c r="D16" s="6">
         <v>1</v>
       </c>
-      <c r="E16" s="91">
-        <v>1500</v>
-      </c>
-      <c r="F16" s="91"/>
+      <c r="E16" s="91"/>
+      <c r="F16" s="91">
+        <v>7000</v>
+      </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="89">
-        <v>44651</v>
+        <v>44681</v>
       </c>
       <c r="B17" s="90">
-        <v>44645</v>
+        <v>44671</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="53">
         <v>1</v>
       </c>
-      <c r="E17" s="91"/>
-      <c r="F17" s="91">
-        <v>7000</v>
-      </c>
+      <c r="E17" s="91">
+        <v>2000</v>
+      </c>
+      <c r="F17" s="91"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="89">
-        <v>44681</v>
-      </c>
-      <c r="B18" s="90">
-        <v>44671</v>
-      </c>
-      <c r="C18" s="6" t="s">
+      <c r="A18" s="92"/>
+      <c r="B18" s="93"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="94"/>
+      <c r="F18" s="94"/>
+    </row>
+    <row r="20" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+      <c r="A20" s="83" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="80" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="85" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="81" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="81" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" s="81" t="s">
+        <v>26</v>
+      </c>
+      <c r="F22" s="81" t="s">
+        <v>32</v>
+      </c>
+      <c r="G22" s="82" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="76">
+        <v>44620</v>
+      </c>
+      <c r="B23" s="76">
+        <v>44620</v>
+      </c>
+      <c r="C23" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="53">
+      <c r="D23" s="69">
         <v>1</v>
       </c>
-      <c r="E18" s="91">
-        <v>2000</v>
-      </c>
-      <c r="F18" s="91"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="92"/>
-      <c r="B19" s="93"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="53"/>
-      <c r="E19" s="94"/>
-      <c r="F19" s="94"/>
-    </row>
-    <row r="21" spans="1:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="A21" s="83" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="80" t="s">
-        <v>31</v>
-      </c>
-      <c r="B23" s="85" t="s">
-        <v>18</v>
-      </c>
-      <c r="C23" s="81" t="s">
-        <v>4</v>
-      </c>
-      <c r="D23" s="81" t="s">
-        <v>5</v>
-      </c>
-      <c r="E23" s="81" t="s">
-        <v>26</v>
-      </c>
-      <c r="F23" s="81" t="s">
-        <v>32</v>
-      </c>
-      <c r="G23" s="82" t="s">
-        <v>70</v>
+      <c r="E23" s="97">
+        <v>10</v>
+      </c>
+      <c r="F23" s="78">
+        <v>100000</v>
+      </c>
+      <c r="G23" s="78">
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="76">
-        <v>44620</v>
-      </c>
-      <c r="B24" s="76">
-        <v>44620</v>
-      </c>
-      <c r="C24" s="69" t="s">
+      <c r="A24" s="72">
+        <v>44651</v>
+      </c>
+      <c r="B24" s="72">
+        <v>44651</v>
+      </c>
+      <c r="C24" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D24" s="69">
+      <c r="D24" s="6">
         <v>1</v>
       </c>
-      <c r="E24" s="97">
+      <c r="E24" s="95">
         <v>10</v>
       </c>
-      <c r="F24" s="78">
+      <c r="F24" s="74">
         <v>100000</v>
       </c>
-      <c r="G24" s="78">
-        <v>100</v>
+      <c r="G24" s="74">
+        <v>877.77779999999996</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="72">
-        <v>44651</v>
+        <v>44681</v>
       </c>
       <c r="B25" s="72">
-        <v>44651</v>
+        <v>44681</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>29</v>
@@ -1955,92 +1957,92 @@
         <v>10</v>
       </c>
       <c r="F25" s="74">
-        <v>100000</v>
+        <v>106766.6667</v>
       </c>
       <c r="G25" s="74">
-        <v>877.77779999999996</v>
+        <v>484.73149999999998</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="72">
-        <v>44681</v>
-      </c>
-      <c r="B26" s="72">
-        <v>44681</v>
+      <c r="A26" s="96">
+        <v>44712</v>
+      </c>
+      <c r="B26" s="96">
+        <v>44712</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D26" s="53">
         <v>1</v>
       </c>
       <c r="E26" s="95">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F26" s="74">
-        <v>106766.6667</v>
+        <v>105814.88890000001</v>
       </c>
       <c r="G26" s="74">
-        <v>484.73149999999998</v>
+        <v>323.32330000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="96">
-        <v>44712</v>
-      </c>
-      <c r="B27" s="96">
-        <v>44712</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D27" s="53">
-        <v>1</v>
-      </c>
-      <c r="E27" s="95">
-        <v>15</v>
-      </c>
-      <c r="F27" s="74">
-        <v>105814.88890000001</v>
-      </c>
-      <c r="G27" s="74">
-        <v>323.32330000000002</v>
-      </c>
+    <row r="28" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="112" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" s="113"/>
+      <c r="C29" s="113"/>
+      <c r="D29" s="113"/>
+      <c r="E29" s="113"/>
+      <c r="F29" s="113"/>
+      <c r="G29" s="113"/>
+      <c r="H29" s="114"/>
     </row>
-    <row r="29" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="112" t="s">
-        <v>56</v>
-      </c>
-      <c r="B30" s="113"/>
-      <c r="C30" s="113"/>
-      <c r="D30" s="113"/>
-      <c r="E30" s="113"/>
-      <c r="F30" s="113"/>
-      <c r="G30" s="113"/>
-      <c r="H30" s="114"/>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="98" t="s">
+        <v>76</v>
+      </c>
+      <c r="B32" s="98" t="s">
+        <v>77</v>
+      </c>
+      <c r="C32" s="99" t="s">
+        <v>78</v>
+      </c>
+      <c r="D32" s="100" t="s">
+        <v>79</v>
+      </c>
+      <c r="E32" s="98" t="s">
+        <v>80</v>
+      </c>
+      <c r="F32" s="98" t="s">
+        <v>81</v>
+      </c>
+      <c r="G32" s="98" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="98" t="s">
-        <v>76</v>
-      </c>
-      <c r="B33" s="98" t="s">
-        <v>77</v>
-      </c>
-      <c r="C33" s="99" t="s">
-        <v>78</v>
-      </c>
-      <c r="D33" s="100" t="s">
-        <v>79</v>
-      </c>
-      <c r="E33" s="98" t="s">
-        <v>80</v>
-      </c>
-      <c r="F33" s="98" t="s">
-        <v>81</v>
-      </c>
-      <c r="G33" s="98" t="s">
-        <v>82</v>
+      <c r="A33" s="6">
+        <v>20220131</v>
+      </c>
+      <c r="B33" s="6">
+        <v>1</v>
+      </c>
+      <c r="C33" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E33" s="6">
+        <v>20220131</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G33" s="6">
+        <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -2051,7 +2053,7 @@
         <v>1</v>
       </c>
       <c r="C34" s="40" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D34" s="6" t="s">
         <v>83</v>
@@ -2063,53 +2065,53 @@
         <v>8</v>
       </c>
       <c r="G34" s="6">
-        <v>100</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
-        <v>20220131</v>
+        <v>20220228</v>
       </c>
       <c r="B35" s="6">
         <v>1</v>
       </c>
       <c r="C35" s="40" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E35" s="6">
-        <v>20220131</v>
+        <v>20220228</v>
       </c>
       <c r="F35" s="6" t="s">
         <v>8</v>
       </c>
       <c r="G35" s="6">
-        <v>100000</v>
+        <v>777.77779999999996</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
-        <v>20220228</v>
+        <v>20220331</v>
       </c>
       <c r="B36" s="6">
         <v>1</v>
       </c>
       <c r="C36" s="40" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E36" s="6">
-        <v>20220228</v>
+        <v>20220325</v>
       </c>
       <c r="F36" s="6" t="s">
         <v>8</v>
       </c>
       <c r="G36" s="6">
-        <v>777.77779999999996</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -2120,19 +2122,19 @@
         <v>1</v>
       </c>
       <c r="C37" s="40" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E37" s="6">
-        <v>20220325</v>
+        <v>20220315</v>
       </c>
       <c r="F37" s="6" t="s">
         <v>8</v>
       </c>
       <c r="G37" s="6">
-        <v>7000</v>
+        <v>-1266.6667</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -2143,7 +2145,7 @@
         <v>1</v>
       </c>
       <c r="C38" s="40" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D38" s="6" t="s">
         <v>84</v>
@@ -2155,7 +2157,7 @@
         <v>8</v>
       </c>
       <c r="G38" s="6">
-        <v>-1266.6667</v>
+        <v>-233.33330000000001</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -2166,10 +2168,10 @@
         <v>1</v>
       </c>
       <c r="C39" s="40" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E39" s="6">
         <v>20220315</v>
@@ -2178,7 +2180,7 @@
         <v>8</v>
       </c>
       <c r="G39" s="6">
-        <v>-233.33330000000001</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -2189,42 +2191,42 @@
         <v>1</v>
       </c>
       <c r="C40" s="40" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E40" s="6">
-        <v>20220315</v>
+        <v>20220331</v>
       </c>
       <c r="F40" s="6" t="s">
         <v>8</v>
       </c>
       <c r="G40" s="6">
-        <v>1500</v>
+        <v>873.6203999999999</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
-        <v>20220331</v>
+        <v>20220430</v>
       </c>
       <c r="B41" s="6">
         <v>1</v>
       </c>
       <c r="C41" s="40" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D41" s="6" t="s">
         <v>84</v>
       </c>
       <c r="E41" s="6">
-        <v>20220331</v>
+        <v>20220420</v>
       </c>
       <c r="F41" s="6" t="s">
         <v>8</v>
       </c>
       <c r="G41" s="6">
-        <v>873.6203999999999</v>
+        <v>-1048.2221999999999</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -2235,7 +2237,7 @@
         <v>1</v>
       </c>
       <c r="C42" s="40" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D42" s="6" t="s">
         <v>84</v>
@@ -2247,7 +2249,7 @@
         <v>8</v>
       </c>
       <c r="G42" s="6">
-        <v>-1048.2221999999999</v>
+        <v>-951.77779999999996</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -2258,10 +2260,10 @@
         <v>1</v>
       </c>
       <c r="C43" s="40" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E43" s="6">
         <v>20220420</v>
@@ -2270,7 +2272,7 @@
         <v>8</v>
       </c>
       <c r="G43" s="6">
-        <v>-951.77779999999996</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -2281,42 +2283,42 @@
         <v>1</v>
       </c>
       <c r="C44" s="40" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E44" s="6">
-        <v>20220420</v>
+        <v>20220430</v>
       </c>
       <c r="F44" s="6" t="s">
         <v>8</v>
       </c>
       <c r="G44" s="6">
-        <v>2000</v>
+        <v>886.81399999999996</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
-        <v>20220430</v>
+        <v>20220531</v>
       </c>
       <c r="B45" s="6">
         <v>1</v>
       </c>
       <c r="C45" s="40" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D45" s="6" t="s">
         <v>84</v>
       </c>
       <c r="E45" s="6">
-        <v>20220430</v>
+        <v>20220531</v>
       </c>
       <c r="F45" s="6" t="s">
         <v>8</v>
       </c>
       <c r="G45" s="6">
-        <v>886.81399999999996</v>
+        <v>164.91669999999999</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -2327,7 +2329,7 @@
         <v>1</v>
       </c>
       <c r="C46" s="40" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D46" s="6" t="s">
         <v>84</v>
@@ -2339,7 +2341,7 @@
         <v>8</v>
       </c>
       <c r="G46" s="6">
-        <v>164.91669999999999</v>
+        <v>710.19439999999997</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -2350,7 +2352,7 @@
         <v>1</v>
       </c>
       <c r="C47" s="40" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D47" s="6" t="s">
         <v>84</v>
@@ -2362,39 +2364,16 @@
         <v>8</v>
       </c>
       <c r="G47" s="6">
-        <v>710.19439999999997</v>
+        <v>1385.1223</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="6">
-        <v>20220531</v>
-      </c>
-      <c r="B48" s="6">
-        <v>1</v>
-      </c>
-      <c r="C48" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="E48" s="6">
-        <v>20220531</v>
-      </c>
-      <c r="F48" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G48" s="6">
-        <v>1385.1223</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="69"/>
+      <c r="A48" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A30:H30"/>
+    <mergeCell ref="A29:H29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2408,8 +2387,8 @@
   </sheetPr>
   <dimension ref="A1:XFD59"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E55" sqref="E55"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2654,7 +2633,6 @@
         <v/>
       </c>
       <c r="G13" s="31">
-        <f>IFERROR(IF(OR($B$14="",A13&lt;&gt;1),0,((F13*R13)/360)*D12),0)</f>
         <v>0</v>
       </c>
       <c r="H13" s="28" t="str">
@@ -16028,11 +16006,10 @@
         <v/>
       </c>
       <c r="G14" s="31">
-        <f t="shared" ref="G14:G25" si="8">IFERROR(IF(OR($B$14="",A14&lt;&gt;1),0,((F14*R14)/360)*D13),0)</f>
         <v>0</v>
       </c>
-      <c r="H14" s="28" t="str">
-        <f>IFERROR(IF(B14="","",IF(B6="","",VLOOKUP($B$6,REPLAY!$B$2:$H$3,7,FALSE)+G14)),"")</f>
+      <c r="H14" s="31" t="str">
+        <f t="shared" ref="H14:H25" si="8">IF(B14="","",O13)</f>
         <v/>
       </c>
       <c r="I14" s="6" t="str">
@@ -16101,11 +16078,10 @@
         <v/>
       </c>
       <c r="G15" s="31">
+        <v>0</v>
+      </c>
+      <c r="H15" s="31" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="H15" s="31" t="str">
-        <f t="shared" ref="H15:H25" si="11">IF(B15="","",O14)</f>
         <v/>
       </c>
       <c r="I15" s="6" t="str">
@@ -16137,7 +16113,7 @@
         <v/>
       </c>
       <c r="P15" s="41">
-        <f t="shared" ref="P15:P25" si="12">IF(K15&lt;&gt;"",ROW(),0)</f>
+        <f t="shared" ref="P15:P25" si="11">IF(K15&lt;&gt;"",ROW(),0)</f>
         <v>0</v>
       </c>
       <c r="Q15" s="6" t="str">
@@ -16174,11 +16150,10 @@
         <v/>
       </c>
       <c r="G16" s="31">
+        <v>0</v>
+      </c>
+      <c r="H16" s="31" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="H16" s="31" t="str">
-        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="I16" s="6" t="str">
@@ -16210,7 +16185,7 @@
         <v/>
       </c>
       <c r="P16" s="41">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Q16" s="6" t="str">
@@ -16247,11 +16222,10 @@
         <v/>
       </c>
       <c r="G17" s="31">
+        <v>0</v>
+      </c>
+      <c r="H17" s="31" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="H17" s="31" t="str">
-        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="I17" s="6" t="str">
@@ -16283,7 +16257,7 @@
         <v/>
       </c>
       <c r="P17" s="41">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Q17" s="6" t="str">
@@ -16320,11 +16294,10 @@
         <v/>
       </c>
       <c r="G18" s="31">
+        <v>0</v>
+      </c>
+      <c r="H18" s="31" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="H18" s="31" t="str">
-        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="I18" s="6" t="str">
@@ -16356,7 +16329,7 @@
         <v/>
       </c>
       <c r="P18" s="41">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Q18" s="6" t="str">
@@ -16381,7 +16354,7 @@
         <v/>
       </c>
       <c r="D19" s="28" t="str">
-        <f t="shared" ref="D19:D25" si="13">IF(B19="","",IF(B20="",1,(B20-B19)))</f>
+        <f t="shared" ref="D19:D25" si="12">IF(B19="","",IF(B20="",1,(B20-B19)))</f>
         <v/>
       </c>
       <c r="E19" s="6" t="str">
@@ -16393,11 +16366,10 @@
         <v/>
       </c>
       <c r="G19" s="31">
+        <v>0</v>
+      </c>
+      <c r="H19" s="31" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="H19" s="31" t="str">
-        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="I19" s="6" t="str">
@@ -16429,7 +16401,7 @@
         <v/>
       </c>
       <c r="P19" s="41">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Q19" s="6" t="str">
@@ -16454,7 +16426,7 @@
         <v/>
       </c>
       <c r="D20" s="28" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="E20" s="6" t="str">
@@ -16466,11 +16438,10 @@
         <v/>
       </c>
       <c r="G20" s="31">
+        <v>0</v>
+      </c>
+      <c r="H20" s="31" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="H20" s="31" t="str">
-        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="I20" s="6" t="str">
@@ -16502,7 +16473,7 @@
         <v/>
       </c>
       <c r="P20" s="41">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Q20" s="6" t="str">
@@ -16523,11 +16494,11 @@
         <v/>
       </c>
       <c r="C21" s="1" t="str">
-        <f t="shared" ref="C21:C25" si="14">IFERROR(IF(MONTH(B21)&lt;MONTH(B22),EOMONTH(B21,0),B22),B21)</f>
+        <f t="shared" ref="C21:C25" si="13">IFERROR(IF(MONTH(B21)&lt;MONTH(B22),EOMONTH(B21,0),B22),B21)</f>
         <v/>
       </c>
       <c r="D21" s="28" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="E21" s="6" t="str">
@@ -16539,11 +16510,10 @@
         <v/>
       </c>
       <c r="G21" s="31">
+        <v>0</v>
+      </c>
+      <c r="H21" s="31" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="H21" s="31" t="str">
-        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="I21" s="6" t="str">
@@ -16575,7 +16545,7 @@
         <v/>
       </c>
       <c r="P21" s="41">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Q21" s="6" t="str">
@@ -16596,11 +16566,11 @@
         <v/>
       </c>
       <c r="C22" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="D22" s="28" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="E22" s="6" t="str">
@@ -16612,11 +16582,10 @@
         <v/>
       </c>
       <c r="G22" s="31">
+        <v>0</v>
+      </c>
+      <c r="H22" s="31" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="H22" s="31" t="str">
-        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="I22" s="6" t="str">
@@ -16648,7 +16617,7 @@
         <v/>
       </c>
       <c r="P22" s="41">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Q22" s="6" t="str">
@@ -16669,11 +16638,11 @@
         <v/>
       </c>
       <c r="C23" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="D23" s="28" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="E23" s="6" t="str">
@@ -16685,11 +16654,10 @@
         <v/>
       </c>
       <c r="G23" s="31">
+        <v>0</v>
+      </c>
+      <c r="H23" s="31" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="H23" s="31" t="str">
-        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="I23" s="6" t="str">
@@ -16721,7 +16689,7 @@
         <v/>
       </c>
       <c r="P23" s="41">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Q23" s="6" t="str">
@@ -16742,11 +16710,11 @@
         <v/>
       </c>
       <c r="C24" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="D24" s="28" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="E24" s="6" t="str">
@@ -16758,11 +16726,10 @@
         <v/>
       </c>
       <c r="G24" s="31">
+        <v>0</v>
+      </c>
+      <c r="H24" s="31" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="H24" s="31" t="str">
-        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="I24" s="6" t="str">
@@ -16794,7 +16761,7 @@
         <v/>
       </c>
       <c r="P24" s="41">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Q24" s="6" t="str">
@@ -16815,11 +16782,11 @@
         <v/>
       </c>
       <c r="C25" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="D25" s="28" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="E25" s="6" t="str">
@@ -16831,11 +16798,10 @@
         <v/>
       </c>
       <c r="G25" s="31">
+        <v>0</v>
+      </c>
+      <c r="H25" s="31" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="H25" s="31" t="str">
-        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="I25" s="6" t="str">
@@ -16867,7 +16833,7 @@
         <v/>
       </c>
       <c r="P25" s="41">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Q25" s="6" t="str">
@@ -17106,7 +17072,7 @@
         <v/>
       </c>
       <c r="C34" s="1" t="str">
-        <f t="shared" ref="C34:C46" si="15">IFERROR(IF(OR(A34=$B$7,W34=""),EOMONTH(B34,0),B35),"")</f>
+        <f t="shared" ref="C34:C46" si="14">IFERROR(IF(OR(A34=$B$7,W34=""),EOMONTH(B34,0),B35),"")</f>
         <v/>
       </c>
       <c r="D34" s="28" t="str">
@@ -17114,7 +17080,7 @@
         <v/>
       </c>
       <c r="E34" s="6" t="str">
-        <f t="shared" ref="E34:E45" si="16">IFERROR(DAY(B34),"")</f>
+        <f t="shared" ref="E34:E45" si="15">IFERROR(DAY(B34),"")</f>
         <v/>
       </c>
       <c r="F34" s="28" t="str">
@@ -17134,11 +17100,11 @@
         <v/>
       </c>
       <c r="J34" s="28" t="str">
-        <f t="shared" ref="J34:J45" si="17">IF(B34="","",MIN(I34,G34))</f>
+        <f t="shared" ref="J34:J45" si="16">IF(B34="","",MIN(I34,G34))</f>
         <v/>
       </c>
       <c r="K34" s="63" t="str">
-        <f t="shared" ref="K34:K45" si="18">IF(B34="","",MAX(I34-J34,0))</f>
+        <f t="shared" ref="K34:K45" si="17">IF(B34="","",MAX(I34-J34,0))</f>
         <v/>
       </c>
       <c r="L34" s="7">
@@ -17154,7 +17120,7 @@
         <v/>
       </c>
       <c r="O34" s="31" t="str">
-        <f t="shared" ref="O34:O45" si="19">IFERROR(IF(B34="","",(N34*$B$2)/360),0)</f>
+        <f t="shared" ref="O34:O45" si="18">IFERROR(IF(B34="","",(N34*$B$2)/360),0)</f>
         <v/>
       </c>
       <c r="P34" s="6" t="str">
@@ -17162,23 +17128,23 @@
         <v/>
       </c>
       <c r="Q34" s="29" t="str">
-        <f t="shared" ref="Q34:Q45" si="20">IFERROR(IF(B34="","",G34-J34+M34+(O34*D34)),0)</f>
+        <f t="shared" ref="Q34:Q45" si="19">IFERROR(IF(B34="","",G34-J34+M34+(O34*D34)),0)</f>
         <v/>
       </c>
       <c r="R34" s="41">
-        <f t="shared" ref="R34:R45" si="21">IF(J34&lt;&gt;"",ROW(),0)</f>
+        <f t="shared" ref="R34:R45" si="20">IF(J34&lt;&gt;"",ROW(),0)</f>
         <v>0</v>
       </c>
       <c r="S34" s="6">
-        <f t="shared" ref="S34:S45" si="22">IF(OR(J34=0,J34=""),0,1)</f>
+        <f t="shared" ref="S34:S45" si="21">IF(OR(J34=0,J34=""),0,1)</f>
         <v>0</v>
       </c>
       <c r="T34" s="1">
-        <f t="shared" ref="T34:T45" si="23">IF(S34=0,0,B34)</f>
+        <f t="shared" ref="T34:T45" si="22">IF(S34=0,0,B34)</f>
         <v>0</v>
       </c>
       <c r="V34" s="50" t="str">
-        <f t="shared" ref="V34:V45" si="24">IF(W34="","",COUNTIF($W$34:$W$45,"&lt;"&amp;W34)+1)</f>
+        <f t="shared" ref="V34:V45" si="23">IF(W34="","",COUNTIF($W$34:$W$45,"&lt;"&amp;W34)+1)</f>
         <v/>
       </c>
       <c r="W34" s="1" t="str">
@@ -17195,23 +17161,23 @@
         <v/>
       </c>
       <c r="C35" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="D35" s="28" t="str">
+        <f t="shared" ref="D35:D45" si="24">IF(B35="","",IF(C35=EOMONTH(C35,0),C35-B35+1,C35-B35))</f>
+        <v/>
+      </c>
+      <c r="E35" s="6" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="D35" s="28" t="str">
-        <f t="shared" ref="D35:D45" si="25">IF(B35="","",IF(C35=EOMONTH(C35,0),C35-B35+1,C35-B35))</f>
-        <v/>
-      </c>
-      <c r="E35" s="6" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
       <c r="F35" s="28" t="str">
-        <f t="shared" ref="F35:F45" si="26">IF(B35="","",N34)</f>
+        <f t="shared" ref="F35:F45" si="25">IF(B35="","",N34)</f>
         <v/>
       </c>
       <c r="G35" s="31" t="str">
-        <f t="shared" ref="G35:G45" si="27">IF(B35="","",Q34)</f>
+        <f t="shared" ref="G35:G45" si="26">IF(B35="","",Q34)</f>
         <v/>
       </c>
       <c r="H35" s="6" t="str">
@@ -17223,27 +17189,27 @@
         <v/>
       </c>
       <c r="J35" s="28" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="K35" s="63" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="K35" s="63" t="str">
+      <c r="L35" s="7">
+        <f t="shared" ref="L35:L45" si="27">IF(C35=$B$5,$D$28,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M35" s="7">
+        <f t="shared" ref="M35:M45" si="28">IF(C35=$B$5,$D$29,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N35" s="66" t="str">
+        <f t="shared" ref="N35:N45" si="29">IFERROR(IF(B35="","",F35-K35+H35+L35),0)</f>
+        <v/>
+      </c>
+      <c r="O35" s="31" t="str">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="L35" s="7">
-        <f t="shared" ref="L35:L45" si="28">IF(C35=$B$5,$D$28,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M35" s="7">
-        <f t="shared" ref="M35:M45" si="29">IF(C35=$B$5,$D$29,0)</f>
-        <v>0</v>
-      </c>
-      <c r="N35" s="66" t="str">
-        <f t="shared" ref="N35:N45" si="30">IFERROR(IF(B35="","",F35-K35+H35+L35),0)</f>
-        <v/>
-      </c>
-      <c r="O35" s="31" t="str">
-        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="P35" s="6" t="str">
@@ -17251,23 +17217,23 @@
         <v/>
       </c>
       <c r="Q35" s="29" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="R35" s="41">
         <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="R35" s="41">
+        <v>0</v>
+      </c>
+      <c r="S35" s="6">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="S35" s="6">
+      <c r="T35" s="1">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="T35" s="1">
+      <c r="V35" s="50" t="str">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="V35" s="50" t="str">
-        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="W35" s="1" t="str">
@@ -17284,23 +17250,23 @@
         <v/>
       </c>
       <c r="C36" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="D36" s="28" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="E36" s="6" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="D36" s="28" t="str">
+      <c r="F36" s="28" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="E36" s="6" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="F36" s="28" t="str">
+      <c r="G36" s="31" t="str">
         <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="G36" s="31" t="str">
-        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="H36" s="6" t="str">
@@ -17312,27 +17278,27 @@
         <v/>
       </c>
       <c r="J36" s="28" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="K36" s="63" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="K36" s="63" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
       <c r="L36" s="7">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="M36" s="7">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="M36" s="7">
+      <c r="N36" s="66" t="str">
         <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="N36" s="66" t="str">
-        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="O36" s="31" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="P36" s="6" t="str">
@@ -17340,23 +17306,23 @@
         <v/>
       </c>
       <c r="Q36" s="29" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="R36" s="41">
         <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="R36" s="41">
+        <v>0</v>
+      </c>
+      <c r="S36" s="6">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="S36" s="6">
+      <c r="T36" s="1">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="T36" s="1">
+      <c r="V36" s="50" t="str">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="V36" s="50" t="str">
-        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="W36" s="1" t="str">
@@ -17373,23 +17339,23 @@
         <v/>
       </c>
       <c r="C37" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="D37" s="28" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="E37" s="6" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="D37" s="28" t="str">
+      <c r="F37" s="28" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="E37" s="6" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="F37" s="28" t="str">
+      <c r="G37" s="31" t="str">
         <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="G37" s="31" t="str">
-        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="H37" s="6" t="str">
@@ -17401,48 +17367,48 @@
         <v/>
       </c>
       <c r="J37" s="28" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="K37" s="63" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="K37" s="63" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
       <c r="L37" s="7">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="M37" s="7">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="M37" s="7">
+      <c r="N37" s="66" t="str">
         <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="N37" s="66" t="str">
-        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="O37" s="31" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="P37" s="6"/>
       <c r="Q37" s="29" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="R37" s="41">
         <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="R37" s="41">
+        <v>0</v>
+      </c>
+      <c r="S37" s="6">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="S37" s="6">
+      <c r="T37" s="1">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="T37" s="1">
+      <c r="V37" s="50" t="str">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="V37" s="50" t="str">
-        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="W37" s="1" t="str">
@@ -17459,23 +17425,23 @@
         <v/>
       </c>
       <c r="C38" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="D38" s="28" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="E38" s="6" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="D38" s="28" t="str">
+      <c r="F38" s="32" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="E38" s="6" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="F38" s="32" t="str">
+      <c r="G38" s="31" t="str">
         <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="G38" s="31" t="str">
-        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="H38" s="6" t="str">
@@ -17487,48 +17453,48 @@
         <v/>
       </c>
       <c r="J38" s="28" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="K38" s="63" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="K38" s="63" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
       <c r="L38" s="7">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="M38" s="7">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="M38" s="7">
+      <c r="N38" s="66" t="str">
         <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="N38" s="66" t="str">
-        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="O38" s="31" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="P38" s="6"/>
       <c r="Q38" s="29" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="R38" s="41">
         <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="R38" s="41">
+        <v>0</v>
+      </c>
+      <c r="S38" s="6">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="S38" s="6">
+      <c r="T38" s="1">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="T38" s="1">
+      <c r="V38" s="50" t="str">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="V38" s="50" t="str">
-        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="W38" s="1" t="str">
@@ -17545,23 +17511,23 @@
         <v/>
       </c>
       <c r="C39" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="D39" s="28" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="E39" s="6" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="D39" s="28" t="str">
+      <c r="F39" s="32" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="E39" s="6" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="F39" s="32" t="str">
+      <c r="G39" s="31" t="str">
         <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="G39" s="31" t="str">
-        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="H39" s="6" t="str">
@@ -17573,48 +17539,48 @@
         <v/>
       </c>
       <c r="J39" s="28" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="K39" s="63" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="K39" s="63" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
       <c r="L39" s="7">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="M39" s="7">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="M39" s="7">
+      <c r="N39" s="66" t="str">
         <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="N39" s="66" t="str">
-        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="O39" s="31" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="P39" s="6"/>
       <c r="Q39" s="29" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="R39" s="41">
         <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="R39" s="41">
+        <v>0</v>
+      </c>
+      <c r="S39" s="6">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="S39" s="6">
+      <c r="T39" s="1">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="T39" s="1">
+      <c r="V39" s="50" t="str">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="V39" s="50" t="str">
-        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="W39" s="1" t="str">
@@ -17631,23 +17597,23 @@
         <v/>
       </c>
       <c r="C40" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="D40" s="28" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="E40" s="6" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="D40" s="28" t="str">
+      <c r="F40" s="32" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="E40" s="6" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="F40" s="32" t="str">
+      <c r="G40" s="31" t="str">
         <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="G40" s="31" t="str">
-        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="H40" s="6" t="str">
@@ -17659,48 +17625,48 @@
         <v/>
       </c>
       <c r="J40" s="28" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="K40" s="63" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="K40" s="63" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
       <c r="L40" s="7">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="M40" s="7">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="M40" s="7">
+      <c r="N40" s="66" t="str">
         <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="N40" s="66" t="str">
-        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="O40" s="31" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="P40" s="6"/>
       <c r="Q40" s="29" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="R40" s="41">
         <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="R40" s="41">
+        <v>0</v>
+      </c>
+      <c r="S40" s="6">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="S40" s="6">
+      <c r="T40" s="1">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="T40" s="1">
+      <c r="V40" s="50" t="str">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="V40" s="50" t="str">
-        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="W40" s="1" t="str">
@@ -17717,23 +17683,23 @@
         <v/>
       </c>
       <c r="C41" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="D41" s="28" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="E41" s="6" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="D41" s="28" t="str">
+      <c r="F41" s="32" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="E41" s="6" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="F41" s="32" t="str">
+      <c r="G41" s="31" t="str">
         <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="G41" s="31" t="str">
-        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="H41" s="6" t="str">
@@ -17745,48 +17711,48 @@
         <v/>
       </c>
       <c r="J41" s="28" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="K41" s="63" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="K41" s="63" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
       <c r="L41" s="7">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="M41" s="7">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="M41" s="7">
+      <c r="N41" s="66" t="str">
         <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="N41" s="66" t="str">
-        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="O41" s="31" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="P41" s="6"/>
       <c r="Q41" s="29" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="R41" s="41">
         <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="R41" s="41">
+        <v>0</v>
+      </c>
+      <c r="S41" s="6">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="S41" s="6">
+      <c r="T41" s="1">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="T41" s="1">
+      <c r="V41" s="50" t="str">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="V41" s="50" t="str">
-        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="W41" s="1" t="str">
@@ -17803,23 +17769,23 @@
         <v/>
       </c>
       <c r="C42" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="D42" s="28" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="E42" s="6" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="D42" s="28" t="str">
+      <c r="F42" s="32" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="E42" s="6" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="F42" s="32" t="str">
+      <c r="G42" s="31" t="str">
         <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="G42" s="31" t="str">
-        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="H42" s="6" t="str">
@@ -17831,48 +17797,48 @@
         <v/>
       </c>
       <c r="J42" s="28" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="K42" s="63" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="K42" s="63" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
       <c r="L42" s="7">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="M42" s="7">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="M42" s="7">
+      <c r="N42" s="66" t="str">
         <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="N42" s="66" t="str">
-        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="O42" s="31" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="P42" s="6"/>
       <c r="Q42" s="29" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="R42" s="41">
         <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="R42" s="41">
+        <v>0</v>
+      </c>
+      <c r="S42" s="6">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="S42" s="6">
+      <c r="T42" s="1">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="T42" s="1">
+      <c r="V42" s="50" t="str">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="V42" s="50" t="str">
-        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="W42" s="1" t="str">
@@ -17889,23 +17855,23 @@
         <v/>
       </c>
       <c r="C43" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="D43" s="28" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="E43" s="6" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="D43" s="28" t="str">
+      <c r="F43" s="32" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="E43" s="6" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="F43" s="32" t="str">
+      <c r="G43" s="31" t="str">
         <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="G43" s="31" t="str">
-        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="H43" s="6" t="str">
@@ -17917,48 +17883,48 @@
         <v/>
       </c>
       <c r="J43" s="28" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="K43" s="63" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="K43" s="63" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
       <c r="L43" s="7">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="M43" s="7">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="M43" s="7">
+      <c r="N43" s="66" t="str">
         <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="N43" s="66" t="str">
-        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="O43" s="31" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="P43" s="6"/>
       <c r="Q43" s="29" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="R43" s="41">
         <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="R43" s="41">
+        <v>0</v>
+      </c>
+      <c r="S43" s="6">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="S43" s="6">
+      <c r="T43" s="1">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="T43" s="1">
+      <c r="V43" s="50" t="str">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="V43" s="50" t="str">
-        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="W43" s="1" t="str">
@@ -17975,23 +17941,23 @@
         <v/>
       </c>
       <c r="C44" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="D44" s="28" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="E44" s="6" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="D44" s="28" t="str">
+      <c r="F44" s="32" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="E44" s="6" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="F44" s="32" t="str">
+      <c r="G44" s="31" t="str">
         <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="G44" s="31" t="str">
-        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="H44" s="6" t="str">
@@ -18003,48 +17969,48 @@
         <v/>
       </c>
       <c r="J44" s="28" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="K44" s="63" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="K44" s="63" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
       <c r="L44" s="7">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="M44" s="7">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="M44" s="7">
+      <c r="N44" s="66" t="str">
         <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="N44" s="66" t="str">
-        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="O44" s="31" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="P44" s="6"/>
       <c r="Q44" s="29" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="R44" s="41">
         <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="R44" s="41">
+        <v>0</v>
+      </c>
+      <c r="S44" s="6">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="S44" s="6">
+      <c r="T44" s="1">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="T44" s="1">
+      <c r="V44" s="50" t="str">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="V44" s="50" t="str">
-        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="W44" s="1" t="str">
@@ -18061,23 +18027,23 @@
         <v/>
       </c>
       <c r="C45" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="D45" s="28" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="E45" s="6" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="D45" s="28" t="str">
+      <c r="F45" s="32" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="E45" s="6" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="F45" s="32" t="str">
+      <c r="G45" s="31" t="str">
         <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="G45" s="31" t="str">
-        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="H45" s="6" t="str">
@@ -18089,48 +18055,48 @@
         <v/>
       </c>
       <c r="J45" s="28" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="K45" s="63" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="K45" s="63" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
       <c r="L45" s="7">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="M45" s="7">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="M45" s="7">
+      <c r="N45" s="66" t="str">
         <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="N45" s="66" t="str">
-        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="O45" s="31" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="P45" s="6"/>
       <c r="Q45" s="29" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="R45" s="41">
         <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="R45" s="41">
+        <v>0</v>
+      </c>
+      <c r="S45" s="6">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="S45" s="6">
+      <c r="T45" s="1">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="T45" s="1">
+      <c r="V45" s="50" t="str">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="V45" s="50" t="str">
-        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="W45" s="1" t="str">
@@ -18147,7 +18113,7 @@
         <v/>
       </c>
       <c r="C46" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="D46" s="6"/>
@@ -18258,7 +18224,7 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="str">
-        <f t="shared" ref="A52:A55" si="31">IF(E52=0,"",$B$5)</f>
+        <f t="shared" ref="A52:A55" si="30">IF(E52=0,"",$B$5)</f>
         <v/>
       </c>
       <c r="B52" s="1" t="str">
@@ -18266,7 +18232,7 @@
         <v/>
       </c>
       <c r="C52" s="6" t="str">
-        <f t="shared" ref="C52:C55" si="32">IF(E52=0,"",$B$3)</f>
+        <f t="shared" ref="C52:C55" si="31">IF(E52=0,"",$B$3)</f>
         <v/>
       </c>
       <c r="D52" s="6" t="str">
@@ -18278,13 +18244,13 @@
         <v>0</v>
       </c>
       <c r="F52" s="6" t="str">
-        <f t="shared" ref="F52:F55" si="33">IF(E52=0,"",$B$9)</f>
+        <f t="shared" ref="F52:F55" si="32">IF(E52=0,"",$B$9)</f>
         <v/>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="B53" s="1" t="str">
@@ -18292,7 +18258,7 @@
         <v/>
       </c>
       <c r="C53" s="6" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="D53" s="6" t="str">
@@ -18304,21 +18270,21 @@
         <v>0</v>
       </c>
       <c r="F53" s="6" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="B54" s="1" t="str">
+        <f t="shared" ref="B54:B55" si="33">IF(E54=0,"",$B$5)</f>
+        <v/>
+      </c>
+      <c r="C54" s="6" t="str">
         <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="B54" s="1" t="str">
-        <f t="shared" ref="B54:B55" si="34">IF(E54=0,"",$B$5)</f>
-        <v/>
-      </c>
-      <c r="C54" s="6" t="str">
-        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="D54" s="6" t="str">
@@ -18330,21 +18296,21 @@
         <v>0</v>
       </c>
       <c r="F54" s="6" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="B55" s="1" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="C55" s="6" t="str">
         <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="B55" s="1" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="C55" s="6" t="str">
-        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="D55" s="6" t="str">
@@ -18356,7 +18322,7 @@
         <v>0</v>
       </c>
       <c r="F55" s="6" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
@@ -18564,8 +18530,8 @@
   </sheetPr>
   <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19161,7 +19127,7 @@
         <v>68</v>
       </c>
       <c r="G40" s="6">
-        <v>-1305.5555999999999</v>
+        <v>-1305.5554999999999</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -19184,7 +19150,7 @@
         <v>68</v>
       </c>
       <c r="G41" s="6">
-        <v>-194.4444</v>
+        <v>-194.44450000000001</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -19253,7 +19219,7 @@
         <v>68</v>
       </c>
       <c r="G44" s="6">
-        <v>-1098.6111000000001</v>
+        <v>-1098.6112000000001</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -19276,7 +19242,7 @@
         <v>68</v>
       </c>
       <c r="G45" s="6">
-        <v>-901.38890000000004</v>
+        <v>-901.38879999999995</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -19345,7 +19311,7 @@
         <v>68</v>
       </c>
       <c r="G48" s="6">
-        <v>173.3716</v>
+        <v>233.62620000000001</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -19368,7 +19334,7 @@
         <v>68</v>
       </c>
       <c r="G49" s="6">
-        <v>858.47220000000004</v>
+        <v>1095.8333</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -19391,7 +19357,7 @@
         <v>68</v>
       </c>
       <c r="G50" s="6">
-        <v>1454.6894</v>
+        <v>1460.8212000000001</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/TestDriver/TestSBO_Replay_Monthly_RC/Model/SBO_MODEL_EVENTS_Replay_Monthly.xlsx
+++ b/src/test/resources/TestDriver/TestSBO_Replay_Monthly_RC/Model/SBO_MODEL_EVENTS_Replay_Monthly.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arahmed\OneDrive - SS&amp;C Technologies, Inc\Desktop\Pers\fyntrac-data-main\fyntrac-data-main\src\test\resources\TestDriver\TestSBO_Replay_Monthly_RC\Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5102CF9F-9624-4497-8A3D-A4FDA9F95E1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{873ADB8F-E609-4C8C-9DEE-DB844FB3CA95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TRANX" sheetId="27" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="85">
   <si>
     <t>Amount</t>
   </si>
@@ -1594,10 +1594,10 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:I48"/>
+  <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView topLeftCell="D22" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33:G47"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1690,7 +1690,7 @@
         <v>44712</v>
       </c>
       <c r="B7" s="73">
-        <v>44614</v>
+        <v>44635</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>29</v>
@@ -1699,12 +1699,12 @@
         <v>1</v>
       </c>
       <c r="E7" s="74">
-        <v>400</v>
+        <v>1500</v>
       </c>
       <c r="F7" s="74"/>
-      <c r="G7" s="74"/>
+      <c r="G7" s="75"/>
       <c r="H7" s="75"/>
-      <c r="I7">
+      <c r="I7" s="49">
         <v>15</v>
       </c>
     </row>
@@ -1713,7 +1713,7 @@
         <v>44712</v>
       </c>
       <c r="B8" s="73">
-        <v>44635</v>
+        <v>44645</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>29</v>
@@ -1721,12 +1721,12 @@
       <c r="D8" s="6">
         <v>1</v>
       </c>
-      <c r="E8" s="74">
-        <v>1500</v>
-      </c>
-      <c r="F8" s="74"/>
-      <c r="G8" s="75"/>
-      <c r="H8" s="75"/>
+      <c r="E8" s="74"/>
+      <c r="F8" s="75">
+        <v>7000</v>
+      </c>
+      <c r="G8" s="74"/>
+      <c r="H8" s="74"/>
       <c r="I8" s="49">
         <v>15</v>
       </c>
@@ -1736,79 +1736,74 @@
         <v>44712</v>
       </c>
       <c r="B9" s="73">
-        <v>44645</v>
+        <v>44671</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="53">
         <v>1</v>
       </c>
-      <c r="E9" s="74"/>
-      <c r="F9" s="75">
-        <v>7000</v>
-      </c>
-      <c r="G9" s="74"/>
-      <c r="H9" s="74"/>
+      <c r="E9" s="74">
+        <v>2000</v>
+      </c>
+      <c r="F9" s="74"/>
+      <c r="G9" s="75"/>
+      <c r="H9" s="75"/>
       <c r="I9" s="49">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="72">
-        <v>44712</v>
-      </c>
-      <c r="B10" s="73">
-        <v>44671</v>
-      </c>
-      <c r="C10" s="6" t="s">
+    <row r="11" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="A11" s="83" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="84" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="85" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="81" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="81" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="85" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="86" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="89">
+        <v>44651</v>
+      </c>
+      <c r="B14" s="90">
+        <v>44635</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="53">
+      <c r="D14" s="6">
         <v>1</v>
       </c>
-      <c r="E10" s="74">
-        <v>2000</v>
-      </c>
-      <c r="F10" s="74"/>
-      <c r="G10" s="75"/>
-      <c r="H10" s="75"/>
-      <c r="I10" s="49">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="A12" s="83" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="84" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="85" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="81" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" s="81" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" s="85" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" s="86" t="s">
-        <v>30</v>
-      </c>
+      <c r="E14" s="91">
+        <v>1500</v>
+      </c>
+      <c r="F14" s="91"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="89">
         <v>44651</v>
       </c>
       <c r="B15" s="90">
-        <v>44635</v>
+        <v>44645</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>29</v>
@@ -1816,113 +1811,118 @@
       <c r="D15" s="6">
         <v>1</v>
       </c>
-      <c r="E15" s="91">
-        <v>1500</v>
-      </c>
-      <c r="F15" s="91"/>
+      <c r="E15" s="91"/>
+      <c r="F15" s="91">
+        <v>7000</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="89">
-        <v>44651</v>
+        <v>44681</v>
       </c>
       <c r="B16" s="90">
-        <v>44645</v>
+        <v>44671</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="53">
         <v>1</v>
       </c>
-      <c r="E16" s="91"/>
-      <c r="F16" s="91">
-        <v>7000</v>
-      </c>
+      <c r="E16" s="91">
+        <v>2000</v>
+      </c>
+      <c r="F16" s="91"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="89">
-        <v>44681</v>
-      </c>
-      <c r="B17" s="90">
-        <v>44671</v>
-      </c>
-      <c r="C17" s="6" t="s">
+      <c r="A17" s="92"/>
+      <c r="B17" s="93"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="94"/>
+      <c r="F17" s="94"/>
+    </row>
+    <row r="19" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+      <c r="A19" s="83" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="80" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="85" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="81" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="81" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="81" t="s">
+        <v>26</v>
+      </c>
+      <c r="F21" s="81" t="s">
+        <v>32</v>
+      </c>
+      <c r="G21" s="82" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="76">
+        <v>44620</v>
+      </c>
+      <c r="B22" s="76">
+        <v>44620</v>
+      </c>
+      <c r="C22" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="53">
+      <c r="D22" s="69">
         <v>1</v>
       </c>
-      <c r="E17" s="91">
-        <v>2000</v>
-      </c>
-      <c r="F17" s="91"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="92"/>
-      <c r="B18" s="93"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="53"/>
-      <c r="E18" s="94"/>
-      <c r="F18" s="94"/>
-    </row>
-    <row r="20" spans="1:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="A20" s="83" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="80" t="s">
-        <v>31</v>
-      </c>
-      <c r="B22" s="85" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" s="81" t="s">
-        <v>4</v>
-      </c>
-      <c r="D22" s="81" t="s">
-        <v>5</v>
-      </c>
-      <c r="E22" s="81" t="s">
-        <v>26</v>
-      </c>
-      <c r="F22" s="81" t="s">
-        <v>32</v>
-      </c>
-      <c r="G22" s="82" t="s">
-        <v>70</v>
+      <c r="E22" s="97">
+        <v>10</v>
+      </c>
+      <c r="F22" s="78">
+        <v>100000</v>
+      </c>
+      <c r="G22" s="78">
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="76">
-        <v>44620</v>
-      </c>
-      <c r="B23" s="76">
-        <v>44620</v>
-      </c>
-      <c r="C23" s="69" t="s">
+      <c r="A23" s="72">
+        <v>44651</v>
+      </c>
+      <c r="B23" s="72">
+        <v>44651</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="69">
+      <c r="D23" s="6">
         <v>1</v>
       </c>
-      <c r="E23" s="97">
+      <c r="E23" s="95">
         <v>10</v>
       </c>
-      <c r="F23" s="78">
+      <c r="F23" s="74">
         <v>100000</v>
       </c>
-      <c r="G23" s="78">
-        <v>100</v>
+      <c r="G23" s="74">
+        <v>877.77779999999996</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="72">
-        <v>44651</v>
+        <v>44681</v>
       </c>
       <c r="B24" s="72">
-        <v>44651</v>
+        <v>44681</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>29</v>
@@ -1934,92 +1934,92 @@
         <v>10</v>
       </c>
       <c r="F24" s="74">
-        <v>100000</v>
+        <v>106766.6667</v>
       </c>
       <c r="G24" s="74">
-        <v>877.77779999999996</v>
+        <v>484.73149999999998</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="72">
-        <v>44681</v>
-      </c>
-      <c r="B25" s="72">
-        <v>44681</v>
+      <c r="A25" s="96">
+        <v>44712</v>
+      </c>
+      <c r="B25" s="96">
+        <v>44712</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D25" s="53">
         <v>1</v>
       </c>
       <c r="E25" s="95">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F25" s="74">
-        <v>106766.6667</v>
+        <v>105814.88890000001</v>
       </c>
       <c r="G25" s="74">
-        <v>484.73149999999998</v>
+        <v>323.32330000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="96">
-        <v>44712</v>
-      </c>
-      <c r="B26" s="96">
-        <v>44712</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D26" s="53">
-        <v>1</v>
-      </c>
-      <c r="E26" s="95">
-        <v>15</v>
-      </c>
-      <c r="F26" s="74">
-        <v>105814.88890000001</v>
-      </c>
-      <c r="G26" s="74">
-        <v>323.32330000000002</v>
-      </c>
+    <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="112" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" s="113"/>
+      <c r="C28" s="113"/>
+      <c r="D28" s="113"/>
+      <c r="E28" s="113"/>
+      <c r="F28" s="113"/>
+      <c r="G28" s="113"/>
+      <c r="H28" s="114"/>
     </row>
-    <row r="28" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="112" t="s">
-        <v>56</v>
-      </c>
-      <c r="B29" s="113"/>
-      <c r="C29" s="113"/>
-      <c r="D29" s="113"/>
-      <c r="E29" s="113"/>
-      <c r="F29" s="113"/>
-      <c r="G29" s="113"/>
-      <c r="H29" s="114"/>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="98" t="s">
+        <v>76</v>
+      </c>
+      <c r="B31" s="98" t="s">
+        <v>77</v>
+      </c>
+      <c r="C31" s="99" t="s">
+        <v>78</v>
+      </c>
+      <c r="D31" s="100" t="s">
+        <v>79</v>
+      </c>
+      <c r="E31" s="98" t="s">
+        <v>80</v>
+      </c>
+      <c r="F31" s="98" t="s">
+        <v>81</v>
+      </c>
+      <c r="G31" s="98" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="98" t="s">
-        <v>76</v>
-      </c>
-      <c r="B32" s="98" t="s">
-        <v>77</v>
-      </c>
-      <c r="C32" s="99" t="s">
-        <v>78</v>
-      </c>
-      <c r="D32" s="100" t="s">
-        <v>79</v>
-      </c>
-      <c r="E32" s="98" t="s">
-        <v>80</v>
-      </c>
-      <c r="F32" s="98" t="s">
-        <v>81</v>
-      </c>
-      <c r="G32" s="98" t="s">
-        <v>82</v>
+      <c r="A32" s="6">
+        <v>20220131</v>
+      </c>
+      <c r="B32" s="6">
+        <v>1</v>
+      </c>
+      <c r="C32" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E32" s="6">
+        <v>20220131</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G32" s="6">
+        <v>100</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -2030,7 +2030,7 @@
         <v>1</v>
       </c>
       <c r="C33" s="40" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D33" s="6" t="s">
         <v>83</v>
@@ -2042,53 +2042,53 @@
         <v>8</v>
       </c>
       <c r="G33" s="6">
-        <v>100</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
-        <v>20220131</v>
+        <v>20220228</v>
       </c>
       <c r="B34" s="6">
         <v>1</v>
       </c>
       <c r="C34" s="40" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E34" s="6">
-        <v>20220131</v>
+        <v>20220228</v>
       </c>
       <c r="F34" s="6" t="s">
         <v>8</v>
       </c>
       <c r="G34" s="6">
-        <v>100000</v>
+        <v>777.77779999999996</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
-        <v>20220228</v>
+        <v>20220331</v>
       </c>
       <c r="B35" s="6">
         <v>1</v>
       </c>
       <c r="C35" s="40" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E35" s="6">
-        <v>20220228</v>
+        <v>20220325</v>
       </c>
       <c r="F35" s="6" t="s">
         <v>8</v>
       </c>
       <c r="G35" s="6">
-        <v>777.77779999999996</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -2099,19 +2099,19 @@
         <v>1</v>
       </c>
       <c r="C36" s="40" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E36" s="6">
-        <v>20220325</v>
+        <v>20220315</v>
       </c>
       <c r="F36" s="6" t="s">
         <v>8</v>
       </c>
       <c r="G36" s="6">
-        <v>7000</v>
+        <v>-1266.6667</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -2122,7 +2122,7 @@
         <v>1</v>
       </c>
       <c r="C37" s="40" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D37" s="6" t="s">
         <v>84</v>
@@ -2134,7 +2134,7 @@
         <v>8</v>
       </c>
       <c r="G37" s="6">
-        <v>-1266.6667</v>
+        <v>-233.33330000000001</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -2145,10 +2145,10 @@
         <v>1</v>
       </c>
       <c r="C38" s="40" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E38" s="6">
         <v>20220315</v>
@@ -2157,7 +2157,7 @@
         <v>8</v>
       </c>
       <c r="G38" s="6">
-        <v>-233.33330000000001</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -2168,42 +2168,42 @@
         <v>1</v>
       </c>
       <c r="C39" s="40" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E39" s="6">
-        <v>20220315</v>
+        <v>20220331</v>
       </c>
       <c r="F39" s="6" t="s">
         <v>8</v>
       </c>
       <c r="G39" s="6">
-        <v>1500</v>
+        <v>873.6203999999999</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
-        <v>20220331</v>
+        <v>20220430</v>
       </c>
       <c r="B40" s="6">
         <v>1</v>
       </c>
       <c r="C40" s="40" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D40" s="6" t="s">
         <v>84</v>
       </c>
       <c r="E40" s="6">
-        <v>20220331</v>
+        <v>20220420</v>
       </c>
       <c r="F40" s="6" t="s">
         <v>8</v>
       </c>
       <c r="G40" s="6">
-        <v>873.6203999999999</v>
+        <v>-1048.2221999999999</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -2214,7 +2214,7 @@
         <v>1</v>
       </c>
       <c r="C41" s="40" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D41" s="6" t="s">
         <v>84</v>
@@ -2226,7 +2226,7 @@
         <v>8</v>
       </c>
       <c r="G41" s="6">
-        <v>-1048.2221999999999</v>
+        <v>-951.77779999999996</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -2237,10 +2237,10 @@
         <v>1</v>
       </c>
       <c r="C42" s="40" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E42" s="6">
         <v>20220420</v>
@@ -2249,7 +2249,7 @@
         <v>8</v>
       </c>
       <c r="G42" s="6">
-        <v>-951.77779999999996</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -2260,42 +2260,42 @@
         <v>1</v>
       </c>
       <c r="C43" s="40" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E43" s="6">
-        <v>20220420</v>
+        <v>20220430</v>
       </c>
       <c r="F43" s="6" t="s">
         <v>8</v>
       </c>
       <c r="G43" s="6">
-        <v>2000</v>
+        <v>886.81399999999996</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
-        <v>20220430</v>
+        <v>20220531</v>
       </c>
       <c r="B44" s="6">
         <v>1</v>
       </c>
       <c r="C44" s="40" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D44" s="6" t="s">
         <v>84</v>
       </c>
       <c r="E44" s="6">
-        <v>20220430</v>
+        <v>20220531</v>
       </c>
       <c r="F44" s="6" t="s">
         <v>8</v>
       </c>
       <c r="G44" s="6">
-        <v>886.81399999999996</v>
+        <v>166.7534</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -2306,7 +2306,7 @@
         <v>1</v>
       </c>
       <c r="C45" s="40" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D45" s="6" t="s">
         <v>84</v>
@@ -2318,7 +2318,7 @@
         <v>8</v>
       </c>
       <c r="G45" s="6">
-        <v>164.91669999999999</v>
+        <v>1110.9444000000001</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -2329,7 +2329,7 @@
         <v>1</v>
       </c>
       <c r="C46" s="40" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D46" s="6" t="s">
         <v>84</v>
@@ -2341,39 +2341,16 @@
         <v>8</v>
       </c>
       <c r="G46" s="6">
-        <v>710.19439999999997</v>
+        <v>1395.4749999999999</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="6">
-        <v>20220531</v>
-      </c>
-      <c r="B47" s="6">
-        <v>1</v>
-      </c>
-      <c r="C47" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="E47" s="6">
-        <v>20220531</v>
-      </c>
-      <c r="F47" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G47" s="6">
-        <v>1385.1223</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="69"/>
+      <c r="A47" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A29:H29"/>
+    <mergeCell ref="A28:H28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -18528,10 +18505,10 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:I50"/>
+  <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18613,7 +18590,7 @@
         <v>100</v>
       </c>
       <c r="I6" s="49">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -18636,26 +18613,28 @@
       <c r="G7" s="78"/>
       <c r="H7" s="79"/>
       <c r="I7" s="49">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="76">
+      <c r="A8" s="72">
         <v>44712</v>
       </c>
-      <c r="B8" s="77">
-        <v>44614</v>
-      </c>
-      <c r="C8" s="69" t="s">
+      <c r="B8" s="73">
+        <v>44635</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="69">
+      <c r="D8" s="6">
         <v>1</v>
       </c>
-      <c r="E8" s="78"/>
-      <c r="F8" s="78"/>
-      <c r="G8" s="78"/>
-      <c r="H8" s="79"/>
+      <c r="E8" s="74">
+        <v>1500</v>
+      </c>
+      <c r="F8" s="74"/>
+      <c r="G8" s="75"/>
+      <c r="H8" s="75"/>
       <c r="I8" s="49">
         <v>15</v>
       </c>
@@ -18665,7 +18644,7 @@
         <v>44712</v>
       </c>
       <c r="B9" s="73">
-        <v>44635</v>
+        <v>44645</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>29</v>
@@ -18673,12 +18652,12 @@
       <c r="D9" s="6">
         <v>1</v>
       </c>
-      <c r="E9" s="74">
-        <v>1500</v>
-      </c>
-      <c r="F9" s="74"/>
-      <c r="G9" s="75"/>
-      <c r="H9" s="75"/>
+      <c r="E9" s="74"/>
+      <c r="F9" s="75">
+        <v>7000</v>
+      </c>
+      <c r="G9" s="74"/>
+      <c r="H9" s="74"/>
       <c r="I9" s="49">
         <v>15</v>
       </c>
@@ -18688,79 +18667,74 @@
         <v>44712</v>
       </c>
       <c r="B10" s="73">
-        <v>44645</v>
+        <v>44671</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="53">
         <v>1</v>
       </c>
-      <c r="E10" s="74"/>
-      <c r="F10" s="75">
-        <v>7000</v>
-      </c>
-      <c r="G10" s="74"/>
-      <c r="H10" s="74"/>
+      <c r="E10" s="74">
+        <v>2000</v>
+      </c>
+      <c r="F10" s="74"/>
+      <c r="G10" s="75"/>
+      <c r="H10" s="75"/>
       <c r="I10" s="49">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="72">
-        <v>44712</v>
-      </c>
-      <c r="B11" s="73">
-        <v>44671</v>
-      </c>
-      <c r="C11" s="6" t="s">
+    <row r="12" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="A12" s="83" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="84" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="85" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="71" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="71" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="88" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="89">
+        <v>44620</v>
+      </c>
+      <c r="B15" s="89">
+        <v>44607</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="53">
+      <c r="D15" s="6">
         <v>1</v>
       </c>
-      <c r="E11" s="74">
-        <v>2000</v>
-      </c>
-      <c r="F11" s="74"/>
-      <c r="G11" s="75"/>
-      <c r="H11" s="75"/>
-      <c r="I11" s="49">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="A13" s="83" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="84" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="85" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="71" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="71" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" s="87" t="s">
-        <v>24</v>
-      </c>
-      <c r="F15" s="88" t="s">
-        <v>30</v>
+      <c r="E15" s="101"/>
+      <c r="F15" s="91">
+        <v>5000</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="89">
-        <v>44620</v>
-      </c>
-      <c r="B16" s="89">
-        <v>44607</v>
+        <v>44651</v>
+      </c>
+      <c r="B16" s="90">
+        <v>44635</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>29</v>
@@ -18768,17 +18742,17 @@
       <c r="D16" s="6">
         <v>1</v>
       </c>
-      <c r="E16" s="101"/>
-      <c r="F16" s="91">
-        <v>5000</v>
-      </c>
+      <c r="E16" s="91">
+        <v>1500</v>
+      </c>
+      <c r="F16" s="91"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="89">
         <v>44651</v>
       </c>
       <c r="B17" s="90">
-        <v>44635</v>
+        <v>44645</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>29</v>
@@ -18786,113 +18760,118 @@
       <c r="D17" s="6">
         <v>1</v>
       </c>
-      <c r="E17" s="91">
-        <v>1500</v>
-      </c>
-      <c r="F17" s="91"/>
+      <c r="E17" s="91"/>
+      <c r="F17" s="91">
+        <v>7000</v>
+      </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="89">
-        <v>44651</v>
+        <v>44681</v>
       </c>
       <c r="B18" s="90">
-        <v>44645</v>
+        <v>44671</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="53">
         <v>1</v>
       </c>
-      <c r="E18" s="91"/>
-      <c r="F18" s="91">
-        <v>7000</v>
-      </c>
+      <c r="E18" s="91">
+        <v>2000</v>
+      </c>
+      <c r="F18" s="91"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="89">
-        <v>44681</v>
-      </c>
-      <c r="B19" s="90">
-        <v>44671</v>
-      </c>
-      <c r="C19" s="6" t="s">
+      <c r="A19" s="92"/>
+      <c r="B19" s="93"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="94"/>
+      <c r="F19" s="94"/>
+    </row>
+    <row r="21" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+      <c r="A21" s="83" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="80" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="85" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="81" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="81" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="81" t="s">
+        <v>26</v>
+      </c>
+      <c r="F23" s="81" t="s">
+        <v>32</v>
+      </c>
+      <c r="G23" s="82" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="76">
+        <v>44620</v>
+      </c>
+      <c r="B24" s="76">
+        <v>44620</v>
+      </c>
+      <c r="C24" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="53">
+      <c r="D24" s="69">
         <v>1</v>
       </c>
-      <c r="E19" s="91">
-        <v>2000</v>
-      </c>
-      <c r="F19" s="91"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="92"/>
-      <c r="B20" s="93"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="53"/>
-      <c r="E20" s="94"/>
-      <c r="F20" s="94"/>
-    </row>
-    <row r="22" spans="1:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="A22" s="83" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="80" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24" s="85" t="s">
-        <v>18</v>
-      </c>
-      <c r="C24" s="81" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" s="81" t="s">
-        <v>5</v>
-      </c>
-      <c r="E24" s="81" t="s">
-        <v>26</v>
-      </c>
-      <c r="F24" s="81" t="s">
-        <v>32</v>
-      </c>
-      <c r="G24" s="82" t="s">
-        <v>70</v>
+      <c r="E24" s="97">
+        <v>10</v>
+      </c>
+      <c r="F24" s="78">
+        <v>100000</v>
+      </c>
+      <c r="G24" s="78">
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="76">
-        <v>44620</v>
-      </c>
-      <c r="B25" s="76">
-        <v>44620</v>
-      </c>
-      <c r="C25" s="69" t="s">
+      <c r="A25" s="72">
+        <v>44651</v>
+      </c>
+      <c r="B25" s="72">
+        <v>44651</v>
+      </c>
+      <c r="C25" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D25" s="69">
+      <c r="D25" s="6">
         <v>1</v>
       </c>
-      <c r="E25" s="97">
+      <c r="E25" s="95">
         <v>10</v>
       </c>
       <c r="F25" s="78">
-        <v>100000</v>
+        <v>105000</v>
       </c>
       <c r="G25" s="78">
-        <v>100</v>
+        <v>897.22222222222229</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="72">
-        <v>44651</v>
+        <v>44681</v>
       </c>
       <c r="B26" s="72">
-        <v>44651</v>
+        <v>44681</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>29</v>
@@ -18903,93 +18882,93 @@
       <c r="E26" s="95">
         <v>10</v>
       </c>
-      <c r="F26" s="78">
-        <v>105000</v>
-      </c>
-      <c r="G26" s="78">
-        <v>897.22222222222229</v>
+      <c r="F26" s="74">
+        <v>111805.55555555556</v>
+      </c>
+      <c r="G26" s="74">
+        <v>508.52623456790127</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="72">
-        <v>44681</v>
-      </c>
-      <c r="B27" s="72">
-        <v>44681</v>
+      <c r="A27" s="96">
+        <v>44712</v>
+      </c>
+      <c r="B27" s="96">
+        <v>44712</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D27" s="53">
         <v>1</v>
       </c>
       <c r="E27" s="95">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F27" s="74">
-        <v>111805.55555555556</v>
+        <v>110904.16666666667</v>
       </c>
       <c r="G27" s="74">
-        <v>508.52623456790127</v>
+        <v>338.87384259259261</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="96">
-        <v>44712</v>
-      </c>
-      <c r="B28" s="96">
-        <v>44712</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D28" s="53">
-        <v>1</v>
-      </c>
-      <c r="E28" s="95">
-        <v>15</v>
-      </c>
-      <c r="F28" s="74">
-        <v>110904.16666666667</v>
-      </c>
-      <c r="G28" s="74">
-        <v>338.87384259259261</v>
-      </c>
+    <row r="29" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="112" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" s="113"/>
+      <c r="C30" s="113"/>
+      <c r="D30" s="113"/>
+      <c r="E30" s="113"/>
+      <c r="F30" s="113"/>
+      <c r="G30" s="113"/>
+      <c r="H30" s="114"/>
     </row>
-    <row r="30" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="31" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="112" t="s">
-        <v>56</v>
-      </c>
-      <c r="B31" s="113"/>
-      <c r="C31" s="113"/>
-      <c r="D31" s="113"/>
-      <c r="E31" s="113"/>
-      <c r="F31" s="113"/>
-      <c r="G31" s="113"/>
-      <c r="H31" s="114"/>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="98" t="s">
+        <v>76</v>
+      </c>
+      <c r="B33" s="98" t="s">
+        <v>77</v>
+      </c>
+      <c r="C33" s="99" t="s">
+        <v>78</v>
+      </c>
+      <c r="D33" s="100" t="s">
+        <v>79</v>
+      </c>
+      <c r="E33" s="98" t="s">
+        <v>80</v>
+      </c>
+      <c r="F33" s="98" t="s">
+        <v>81</v>
+      </c>
+      <c r="G33" s="98" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="98" t="s">
-        <v>76</v>
-      </c>
-      <c r="B34" s="98" t="s">
-        <v>77</v>
-      </c>
-      <c r="C34" s="99" t="s">
-        <v>78</v>
-      </c>
-      <c r="D34" s="100" t="s">
-        <v>79</v>
-      </c>
-      <c r="E34" s="98" t="s">
-        <v>80</v>
-      </c>
-      <c r="F34" s="98" t="s">
-        <v>81</v>
-      </c>
-      <c r="G34" s="98" t="s">
-        <v>82</v>
+      <c r="A34" s="6">
+        <v>20220131</v>
+      </c>
+      <c r="B34" s="6">
+        <v>1</v>
+      </c>
+      <c r="C34" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E34" s="6">
+        <v>20220131</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G34" s="6">
+        <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -19000,7 +18979,7 @@
         <v>1</v>
       </c>
       <c r="C35" s="40" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D35" s="6" t="s">
         <v>83</v>
@@ -19012,30 +18991,30 @@
         <v>68</v>
       </c>
       <c r="G35" s="6">
-        <v>100</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
-        <v>20220131</v>
+        <v>20220228</v>
       </c>
       <c r="B36" s="6">
         <v>1</v>
       </c>
       <c r="C36" s="40" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D36" s="6" t="s">
         <v>83</v>
       </c>
       <c r="E36" s="6">
-        <v>20220131</v>
+        <v>20220215</v>
       </c>
       <c r="F36" s="6" t="s">
         <v>68</v>
       </c>
       <c r="G36" s="6">
-        <v>100000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -19046,42 +19025,42 @@
         <v>1</v>
       </c>
       <c r="C37" s="40" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E37" s="6">
-        <v>20220215</v>
+        <v>20220228</v>
       </c>
       <c r="F37" s="6" t="s">
         <v>68</v>
       </c>
       <c r="G37" s="6">
-        <v>5000</v>
+        <v>797.22219999999993</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
-        <v>20220228</v>
+        <v>20220331</v>
       </c>
       <c r="B38" s="6">
         <v>1</v>
       </c>
       <c r="C38" s="40" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E38" s="6">
-        <v>20220228</v>
+        <v>20220325</v>
       </c>
       <c r="F38" s="6" t="s">
         <v>68</v>
       </c>
       <c r="G38" s="6">
-        <v>797.22219999999993</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -19092,19 +19071,19 @@
         <v>1</v>
       </c>
       <c r="C39" s="40" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E39" s="6">
-        <v>20220325</v>
+        <v>20220315</v>
       </c>
       <c r="F39" s="6" t="s">
         <v>68</v>
       </c>
       <c r="G39" s="6">
-        <v>7000</v>
+        <v>-1305.5554999999999</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -19115,7 +19094,7 @@
         <v>1</v>
       </c>
       <c r="C40" s="40" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D40" s="6" t="s">
         <v>84</v>
@@ -19127,7 +19106,7 @@
         <v>68</v>
       </c>
       <c r="G40" s="6">
-        <v>-1305.5554999999999</v>
+        <v>-194.44450000000001</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -19138,10 +19117,10 @@
         <v>1</v>
       </c>
       <c r="C41" s="40" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E41" s="6">
         <v>20220315</v>
@@ -19150,7 +19129,7 @@
         <v>68</v>
       </c>
       <c r="G41" s="6">
-        <v>-194.44450000000001</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -19161,42 +19140,42 @@
         <v>1</v>
       </c>
       <c r="C42" s="40" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E42" s="6">
-        <v>20220315</v>
+        <v>20220331</v>
       </c>
       <c r="F42" s="6" t="s">
         <v>68</v>
       </c>
       <c r="G42" s="6">
-        <v>1500</v>
+        <v>916.8596</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
-        <v>20220331</v>
+        <v>20220430</v>
       </c>
       <c r="B43" s="6">
         <v>1</v>
       </c>
       <c r="C43" s="40" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D43" s="6" t="s">
         <v>84</v>
       </c>
       <c r="E43" s="6">
-        <v>20220331</v>
+        <v>20220420</v>
       </c>
       <c r="F43" s="6" t="s">
         <v>68</v>
       </c>
       <c r="G43" s="6">
-        <v>916.8596</v>
+        <v>-1098.6112000000001</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -19207,7 +19186,7 @@
         <v>1</v>
       </c>
       <c r="C44" s="40" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D44" s="6" t="s">
         <v>84</v>
@@ -19219,7 +19198,7 @@
         <v>68</v>
       </c>
       <c r="G44" s="6">
-        <v>-1098.6112000000001</v>
+        <v>-901.38879999999995</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -19230,10 +19209,10 @@
         <v>1</v>
       </c>
       <c r="C45" s="40" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E45" s="6">
         <v>20220420</v>
@@ -19242,7 +19221,7 @@
         <v>68</v>
       </c>
       <c r="G45" s="6">
-        <v>-901.38879999999995</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -19253,42 +19232,42 @@
         <v>1</v>
       </c>
       <c r="C46" s="40" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E46" s="6">
-        <v>20220420</v>
+        <v>20220430</v>
       </c>
       <c r="F46" s="6" t="s">
         <v>68</v>
       </c>
       <c r="G46" s="6">
-        <v>2000</v>
+        <v>928.95869999999991</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="6">
-        <v>20220430</v>
+        <v>20220531</v>
       </c>
       <c r="B47" s="6">
         <v>1</v>
       </c>
       <c r="C47" s="40" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D47" s="6" t="s">
         <v>84</v>
       </c>
       <c r="E47" s="6">
-        <v>20220430</v>
+        <v>20220531</v>
       </c>
       <c r="F47" s="6" t="s">
         <v>68</v>
       </c>
       <c r="G47" s="6">
-        <v>928.95869999999991</v>
+        <v>233.62620000000001</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -19299,7 +19278,7 @@
         <v>1</v>
       </c>
       <c r="C48" s="40" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D48" s="6" t="s">
         <v>84</v>
@@ -19311,7 +19290,7 @@
         <v>68</v>
       </c>
       <c r="G48" s="6">
-        <v>233.62620000000001</v>
+        <v>1095.8333</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -19322,7 +19301,7 @@
         <v>1</v>
       </c>
       <c r="C49" s="40" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D49" s="6" t="s">
         <v>84</v>
@@ -19334,36 +19313,13 @@
         <v>68</v>
       </c>
       <c r="G49" s="6">
-        <v>1095.8333</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="6">
-        <v>20220531</v>
-      </c>
-      <c r="B50" s="6">
-        <v>1</v>
-      </c>
-      <c r="C50" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="E50" s="6">
-        <v>20220531</v>
-      </c>
-      <c r="F50" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="G50" s="6">
         <v>1460.8212000000001</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A31:H31"/>
+    <mergeCell ref="A30:H30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/src/test/resources/TestDriver/TestSBO_Replay_Monthly_RC/Model/SBO_MODEL_EVENTS_Replay_Monthly.xlsx
+++ b/src/test/resources/TestDriver/TestSBO_Replay_Monthly_RC/Model/SBO_MODEL_EVENTS_Replay_Monthly.xlsx
@@ -8,18 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arahmed\OneDrive - SS&amp;C Technologies, Inc\Desktop\Pers\fyntrac-data-main\fyntrac-data-main\src\test\resources\TestDriver\TestSBO_Replay_Monthly_RC\Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{873ADB8F-E609-4C8C-9DEE-DB844FB3CA95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5891ABDC-A6F0-440B-AE31-8D57E3480A0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TRANX" sheetId="27" r:id="rId1"/>
     <sheet name="EOD" sheetId="28" r:id="rId2"/>
     <sheet name="REPLAY" sheetId="33" r:id="rId3"/>
     <sheet name="EXPECTED" sheetId="38" r:id="rId4"/>
-    <sheet name="CALCULATION" sheetId="36" r:id="rId5"/>
-    <sheet name="o_Transaction" sheetId="7" r:id="rId6"/>
-    <sheet name="EXPECTED2" sheetId="40" r:id="rId7"/>
+    <sheet name="EXPECTED2" sheetId="40" r:id="rId5"/>
+    <sheet name="CALCULATION" sheetId="36" r:id="rId6"/>
+    <sheet name="o_Transaction" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="85">
   <si>
     <t>Amount</t>
   </si>
@@ -1413,7 +1413,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="A2" sqref="A2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1471,7 +1471,7 @@
   </sheetPr>
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1594,10 +1594,10 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:I47"/>
+  <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1682,15 +1682,15 @@
         <v>100</v>
       </c>
       <c r="I6" s="49">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="72">
         <v>44712</v>
       </c>
-      <c r="B7" s="73">
-        <v>44635</v>
+      <c r="B7" s="110">
+        <v>44614</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>29</v>
@@ -1698,11 +1698,9 @@
       <c r="D7" s="6">
         <v>1</v>
       </c>
-      <c r="E7" s="74">
-        <v>1500</v>
-      </c>
-      <c r="F7" s="74"/>
-      <c r="G7" s="75"/>
+      <c r="E7" s="108"/>
+      <c r="F7" s="108"/>
+      <c r="G7" s="74"/>
       <c r="H7" s="75"/>
       <c r="I7" s="49">
         <v>15</v>
@@ -1713,7 +1711,7 @@
         <v>44712</v>
       </c>
       <c r="B8" s="73">
-        <v>44645</v>
+        <v>44635</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>29</v>
@@ -1721,12 +1719,12 @@
       <c r="D8" s="6">
         <v>1</v>
       </c>
-      <c r="E8" s="74"/>
-      <c r="F8" s="75">
-        <v>7000</v>
-      </c>
-      <c r="G8" s="74"/>
-      <c r="H8" s="74"/>
+      <c r="E8" s="74">
+        <v>1500</v>
+      </c>
+      <c r="F8" s="74"/>
+      <c r="G8" s="75"/>
+      <c r="H8" s="75"/>
       <c r="I8" s="49">
         <v>15</v>
       </c>
@@ -1736,74 +1734,79 @@
         <v>44712</v>
       </c>
       <c r="B9" s="73">
-        <v>44671</v>
+        <v>44645</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="53">
+      <c r="D9" s="6">
         <v>1</v>
       </c>
-      <c r="E9" s="74">
-        <v>2000</v>
-      </c>
-      <c r="F9" s="74"/>
-      <c r="G9" s="75"/>
-      <c r="H9" s="75"/>
+      <c r="E9" s="74"/>
+      <c r="F9" s="75">
+        <v>7000</v>
+      </c>
+      <c r="G9" s="74"/>
+      <c r="H9" s="74"/>
       <c r="I9" s="49">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="A11" s="83" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="72">
+        <v>44712</v>
+      </c>
+      <c r="B10" s="73">
+        <v>44671</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="53">
+        <v>1</v>
+      </c>
+      <c r="E10" s="74">
+        <v>2000</v>
+      </c>
+      <c r="F10" s="74"/>
+      <c r="G10" s="75"/>
+      <c r="H10" s="75"/>
+      <c r="I10" s="49">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="A12" s="83" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="84" t="s">
+    <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="84" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="85" t="s">
+      <c r="B14" s="85" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="81" t="s">
+      <c r="C14" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="81" t="s">
+      <c r="D14" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="85" t="s">
+      <c r="E14" s="85" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="86" t="s">
+      <c r="F14" s="86" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="89">
-        <v>44651</v>
-      </c>
-      <c r="B14" s="90">
-        <v>44635</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="6">
-        <v>1</v>
-      </c>
-      <c r="E14" s="91">
-        <v>1500</v>
-      </c>
-      <c r="F14" s="91"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="89">
         <v>44651</v>
       </c>
       <c r="B15" s="90">
-        <v>44645</v>
+        <v>44635</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>29</v>
@@ -1811,118 +1814,113 @@
       <c r="D15" s="6">
         <v>1</v>
       </c>
-      <c r="E15" s="91"/>
-      <c r="F15" s="91">
-        <v>7000</v>
-      </c>
+      <c r="E15" s="91">
+        <v>1500</v>
+      </c>
+      <c r="F15" s="91"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="89">
-        <v>44681</v>
+        <v>44651</v>
       </c>
       <c r="B16" s="90">
-        <v>44671</v>
+        <v>44645</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="53">
+      <c r="D16" s="6">
         <v>1</v>
       </c>
-      <c r="E16" s="91">
-        <v>2000</v>
-      </c>
-      <c r="F16" s="91"/>
+      <c r="E16" s="91"/>
+      <c r="F16" s="91">
+        <v>7000</v>
+      </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="92"/>
-      <c r="B17" s="93"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="94"/>
-      <c r="F17" s="94"/>
+      <c r="A17" s="89">
+        <v>44681</v>
+      </c>
+      <c r="B17" s="90">
+        <v>44671</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="53">
+        <v>1</v>
+      </c>
+      <c r="E17" s="91">
+        <v>2000</v>
+      </c>
+      <c r="F17" s="91"/>
     </row>
-    <row r="19" spans="1:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="A19" s="83" t="s">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="92"/>
+      <c r="B18" s="93"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="94"/>
+      <c r="F18" s="94"/>
+    </row>
+    <row r="20" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+      <c r="A20" s="83" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="21" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="80" t="s">
+    <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="80" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="85" t="s">
+      <c r="B22" s="85" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="81" t="s">
+      <c r="C22" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="D21" s="81" t="s">
+      <c r="D22" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="E21" s="81" t="s">
+      <c r="E22" s="81" t="s">
         <v>26</v>
       </c>
-      <c r="F21" s="81" t="s">
+      <c r="F22" s="81" t="s">
         <v>32</v>
       </c>
-      <c r="G21" s="82" t="s">
+      <c r="G22" s="82" t="s">
         <v>70</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="76">
-        <v>44620</v>
-      </c>
-      <c r="B22" s="76">
-        <v>44620</v>
-      </c>
-      <c r="C22" s="69" t="s">
-        <v>29</v>
-      </c>
-      <c r="D22" s="69">
-        <v>1</v>
-      </c>
-      <c r="E22" s="97">
-        <v>10</v>
-      </c>
-      <c r="F22" s="78">
-        <v>100000</v>
-      </c>
-      <c r="G22" s="78">
-        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="72">
-        <v>44651</v>
-      </c>
-      <c r="B23" s="72">
-        <v>44651</v>
-      </c>
-      <c r="C23" s="6" t="s">
+      <c r="A23" s="76">
+        <v>44620</v>
+      </c>
+      <c r="B23" s="76">
+        <v>44620</v>
+      </c>
+      <c r="C23" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23" s="69">
         <v>1</v>
       </c>
-      <c r="E23" s="95">
+      <c r="E23" s="97">
         <v>10</v>
       </c>
-      <c r="F23" s="74">
+      <c r="F23" s="78">
         <v>100000</v>
       </c>
-      <c r="G23" s="74">
-        <v>877.77779999999996</v>
+      <c r="G23" s="78">
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="72">
-        <v>44681</v>
+        <v>44651</v>
       </c>
       <c r="B24" s="72">
-        <v>44681</v>
+        <v>44651</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>29</v>
@@ -1934,92 +1932,92 @@
         <v>10</v>
       </c>
       <c r="F24" s="74">
-        <v>106766.6667</v>
+        <v>100000</v>
       </c>
       <c r="G24" s="74">
-        <v>484.73149999999998</v>
+        <v>877.77779999999996</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="96">
-        <v>44712</v>
-      </c>
-      <c r="B25" s="96">
-        <v>44712</v>
+      <c r="A25" s="72">
+        <v>44681</v>
+      </c>
+      <c r="B25" s="72">
+        <v>44681</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D25" s="53">
+      <c r="D25" s="6">
         <v>1</v>
       </c>
       <c r="E25" s="95">
+        <v>10</v>
+      </c>
+      <c r="F25" s="74">
+        <v>106766.6667</v>
+      </c>
+      <c r="G25" s="74">
+        <v>484.73149999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="96">
+        <v>44712</v>
+      </c>
+      <c r="B26" s="96">
+        <v>44712</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" s="53">
+        <v>1</v>
+      </c>
+      <c r="E26" s="95">
         <v>15</v>
       </c>
-      <c r="F25" s="74">
+      <c r="F26" s="74">
         <v>105814.88890000001</v>
       </c>
-      <c r="G25" s="74">
+      <c r="G26" s="74">
         <v>323.32330000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="112" t="s">
+    <row r="28" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="112" t="s">
         <v>56</v>
       </c>
-      <c r="B28" s="113"/>
-      <c r="C28" s="113"/>
-      <c r="D28" s="113"/>
-      <c r="E28" s="113"/>
-      <c r="F28" s="113"/>
-      <c r="G28" s="113"/>
-      <c r="H28" s="114"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="98" t="s">
-        <v>76</v>
-      </c>
-      <c r="B31" s="98" t="s">
-        <v>77</v>
-      </c>
-      <c r="C31" s="99" t="s">
-        <v>78</v>
-      </c>
-      <c r="D31" s="100" t="s">
-        <v>79</v>
-      </c>
-      <c r="E31" s="98" t="s">
-        <v>80</v>
-      </c>
-      <c r="F31" s="98" t="s">
-        <v>81</v>
-      </c>
-      <c r="G31" s="98" t="s">
-        <v>82</v>
-      </c>
+      <c r="B29" s="113"/>
+      <c r="C29" s="113"/>
+      <c r="D29" s="113"/>
+      <c r="E29" s="113"/>
+      <c r="F29" s="113"/>
+      <c r="G29" s="113"/>
+      <c r="H29" s="114"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="6">
-        <v>20220131</v>
-      </c>
-      <c r="B32" s="6">
-        <v>1</v>
-      </c>
-      <c r="C32" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="E32" s="6">
-        <v>20220131</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G32" s="6">
-        <v>100</v>
+      <c r="A32" s="98" t="s">
+        <v>76</v>
+      </c>
+      <c r="B32" s="98" t="s">
+        <v>77</v>
+      </c>
+      <c r="C32" s="99" t="s">
+        <v>78</v>
+      </c>
+      <c r="D32" s="100" t="s">
+        <v>79</v>
+      </c>
+      <c r="E32" s="98" t="s">
+        <v>80</v>
+      </c>
+      <c r="F32" s="98" t="s">
+        <v>81</v>
+      </c>
+      <c r="G32" s="98" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -2030,7 +2028,7 @@
         <v>1</v>
       </c>
       <c r="C33" s="40" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D33" s="6" t="s">
         <v>83</v>
@@ -2042,53 +2040,53 @@
         <v>8</v>
       </c>
       <c r="G33" s="6">
-        <v>100000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
-        <v>20220228</v>
+        <v>20220131</v>
       </c>
       <c r="B34" s="6">
         <v>1</v>
       </c>
       <c r="C34" s="40" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E34" s="6">
-        <v>20220228</v>
+        <v>20220131</v>
       </c>
       <c r="F34" s="6" t="s">
         <v>8</v>
       </c>
       <c r="G34" s="6">
-        <v>777.77779999999996</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
-        <v>20220331</v>
+        <v>20220228</v>
       </c>
       <c r="B35" s="6">
         <v>1</v>
       </c>
       <c r="C35" s="40" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E35" s="6">
-        <v>20220325</v>
+        <v>20220228</v>
       </c>
       <c r="F35" s="6" t="s">
         <v>8</v>
       </c>
       <c r="G35" s="6">
-        <v>7000</v>
+        <v>777.77779999999996</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -2099,19 +2097,19 @@
         <v>1</v>
       </c>
       <c r="C36" s="40" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E36" s="6">
-        <v>20220315</v>
+        <v>20220325</v>
       </c>
       <c r="F36" s="6" t="s">
         <v>8</v>
       </c>
       <c r="G36" s="6">
-        <v>-1266.6667</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -2122,7 +2120,7 @@
         <v>1</v>
       </c>
       <c r="C37" s="40" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D37" s="6" t="s">
         <v>84</v>
@@ -2134,7 +2132,7 @@
         <v>8</v>
       </c>
       <c r="G37" s="6">
-        <v>-233.33330000000001</v>
+        <v>-1266.6667</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -2145,10 +2143,10 @@
         <v>1</v>
       </c>
       <c r="C38" s="40" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E38" s="6">
         <v>20220315</v>
@@ -2157,7 +2155,7 @@
         <v>8</v>
       </c>
       <c r="G38" s="6">
-        <v>1500</v>
+        <v>-233.33330000000001</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -2168,42 +2166,42 @@
         <v>1</v>
       </c>
       <c r="C39" s="40" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E39" s="6">
-        <v>20220331</v>
+        <v>20220315</v>
       </c>
       <c r="F39" s="6" t="s">
         <v>8</v>
       </c>
       <c r="G39" s="6">
-        <v>873.6203999999999</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
-        <v>20220430</v>
+        <v>20220331</v>
       </c>
       <c r="B40" s="6">
         <v>1</v>
       </c>
       <c r="C40" s="40" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D40" s="6" t="s">
         <v>84</v>
       </c>
       <c r="E40" s="6">
-        <v>20220420</v>
+        <v>20220331</v>
       </c>
       <c r="F40" s="6" t="s">
         <v>8</v>
       </c>
       <c r="G40" s="6">
-        <v>-1048.2221999999999</v>
+        <v>873.6203999999999</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -2214,7 +2212,7 @@
         <v>1</v>
       </c>
       <c r="C41" s="40" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D41" s="6" t="s">
         <v>84</v>
@@ -2226,7 +2224,7 @@
         <v>8</v>
       </c>
       <c r="G41" s="6">
-        <v>-951.77779999999996</v>
+        <v>-1048.2221999999999</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -2237,10 +2235,10 @@
         <v>1</v>
       </c>
       <c r="C42" s="40" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E42" s="6">
         <v>20220420</v>
@@ -2249,7 +2247,7 @@
         <v>8</v>
       </c>
       <c r="G42" s="6">
-        <v>2000</v>
+        <v>-951.77779999999996</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -2260,42 +2258,42 @@
         <v>1</v>
       </c>
       <c r="C43" s="40" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E43" s="6">
-        <v>20220430</v>
+        <v>20220420</v>
       </c>
       <c r="F43" s="6" t="s">
         <v>8</v>
       </c>
       <c r="G43" s="6">
-        <v>886.81399999999996</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
-        <v>20220531</v>
+        <v>20220430</v>
       </c>
       <c r="B44" s="6">
         <v>1</v>
       </c>
       <c r="C44" s="40" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D44" s="6" t="s">
         <v>84</v>
       </c>
       <c r="E44" s="6">
-        <v>20220531</v>
+        <v>20220430</v>
       </c>
       <c r="F44" s="6" t="s">
         <v>8</v>
       </c>
       <c r="G44" s="6">
-        <v>166.7534</v>
+        <v>886.81399999999996</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -2306,7 +2304,7 @@
         <v>1</v>
       </c>
       <c r="C45" s="40" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D45" s="6" t="s">
         <v>84</v>
@@ -2318,7 +2316,7 @@
         <v>8</v>
       </c>
       <c r="G45" s="6">
-        <v>1110.9444000000001</v>
+        <v>166.7534</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -2329,7 +2327,7 @@
         <v>1</v>
       </c>
       <c r="C46" s="40" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D46" s="6" t="s">
         <v>84</v>
@@ -2341,16 +2339,39 @@
         <v>8</v>
       </c>
       <c r="G46" s="6">
-        <v>1395.4749999999999</v>
+        <v>1110.9444000000001</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="69"/>
+      <c r="A47" s="6">
+        <v>20220531</v>
+      </c>
+      <c r="B47" s="6">
+        <v>1</v>
+      </c>
+      <c r="C47" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E47" s="6">
+        <v>20220531</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G47" s="6">
+        <v>1395.4749999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A28:H28"/>
+    <mergeCell ref="A29:H29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2358,14 +2379,861 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A6CC70E-CB82-4754-868F-6D9B4E3FC2C9}">
+  <sheetPr>
+    <tabColor rgb="FFFFC000"/>
+  </sheetPr>
+  <dimension ref="A1:I50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:G28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.7109375" style="49" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" style="49" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.7109375" style="49" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.140625" style="49" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.7109375" style="49" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.140625" style="49" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="52.140625" style="49" customWidth="1"/>
+    <col min="8" max="8" width="57.28515625" style="49" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="49"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="112" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="114"/>
+    </row>
+    <row r="3" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="A3" s="83" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="80" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="104" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="105" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="106" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="107" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="106" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="76">
+        <v>44712</v>
+      </c>
+      <c r="B6" s="73">
+        <v>44592</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="6">
+        <v>1</v>
+      </c>
+      <c r="E6" s="108"/>
+      <c r="F6" s="108"/>
+      <c r="G6" s="74">
+        <v>100000</v>
+      </c>
+      <c r="H6" s="75">
+        <v>100</v>
+      </c>
+      <c r="I6" s="49">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="76">
+        <v>44712</v>
+      </c>
+      <c r="B7" s="77">
+        <v>44607</v>
+      </c>
+      <c r="C7" s="69" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="69">
+        <v>1</v>
+      </c>
+      <c r="E7" s="102"/>
+      <c r="F7" s="79">
+        <v>5000</v>
+      </c>
+      <c r="G7" s="78"/>
+      <c r="H7" s="79"/>
+      <c r="I7" s="49">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="76">
+        <v>44712</v>
+      </c>
+      <c r="B8" s="77">
+        <v>44614</v>
+      </c>
+      <c r="C8" s="69" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="69">
+        <v>1</v>
+      </c>
+      <c r="E8" s="102"/>
+      <c r="F8" s="79"/>
+      <c r="G8" s="78"/>
+      <c r="H8" s="79"/>
+      <c r="I8" s="49">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="72">
+        <v>44712</v>
+      </c>
+      <c r="B9" s="73">
+        <v>44635</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="6">
+        <v>1</v>
+      </c>
+      <c r="E9" s="74">
+        <v>1500</v>
+      </c>
+      <c r="F9" s="74"/>
+      <c r="G9" s="75"/>
+      <c r="H9" s="75"/>
+      <c r="I9" s="49">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="72">
+        <v>44712</v>
+      </c>
+      <c r="B10" s="73">
+        <v>44645</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="6">
+        <v>1</v>
+      </c>
+      <c r="E10" s="74"/>
+      <c r="F10" s="75">
+        <v>7000</v>
+      </c>
+      <c r="G10" s="74"/>
+      <c r="H10" s="74"/>
+      <c r="I10" s="49">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="72">
+        <v>44712</v>
+      </c>
+      <c r="B11" s="73">
+        <v>44671</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="53">
+        <v>1</v>
+      </c>
+      <c r="E11" s="74">
+        <v>2000</v>
+      </c>
+      <c r="F11" s="74"/>
+      <c r="G11" s="75"/>
+      <c r="H11" s="75"/>
+      <c r="I11" s="49">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="A13" s="83" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="84" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="85" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="71" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="71" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="88" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="89">
+        <v>44620</v>
+      </c>
+      <c r="B16" s="89">
+        <v>44607</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="6">
+        <v>1</v>
+      </c>
+      <c r="E16" s="101"/>
+      <c r="F16" s="91">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="89">
+        <v>44651</v>
+      </c>
+      <c r="B17" s="90">
+        <v>44635</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="6">
+        <v>1</v>
+      </c>
+      <c r="E17" s="91">
+        <v>1500</v>
+      </c>
+      <c r="F17" s="91"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="89">
+        <v>44651</v>
+      </c>
+      <c r="B18" s="90">
+        <v>44645</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="6">
+        <v>1</v>
+      </c>
+      <c r="E18" s="91"/>
+      <c r="F18" s="91">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="89">
+        <v>44681</v>
+      </c>
+      <c r="B19" s="90">
+        <v>44671</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="53">
+        <v>1</v>
+      </c>
+      <c r="E19" s="91">
+        <v>2000</v>
+      </c>
+      <c r="F19" s="91"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="92"/>
+      <c r="B20" s="93"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="94"/>
+      <c r="F20" s="94"/>
+    </row>
+    <row r="22" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+      <c r="A22" s="83" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="80" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="85" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="81" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="81" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" s="81" t="s">
+        <v>26</v>
+      </c>
+      <c r="F24" s="81" t="s">
+        <v>32</v>
+      </c>
+      <c r="G24" s="82" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="76">
+        <v>44620</v>
+      </c>
+      <c r="B25" s="76">
+        <v>44620</v>
+      </c>
+      <c r="C25" s="69" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" s="69">
+        <v>1</v>
+      </c>
+      <c r="E25" s="97">
+        <v>10</v>
+      </c>
+      <c r="F25" s="78">
+        <v>100000</v>
+      </c>
+      <c r="G25" s="78">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="72">
+        <v>44651</v>
+      </c>
+      <c r="B26" s="72">
+        <v>44651</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" s="6">
+        <v>1</v>
+      </c>
+      <c r="E26" s="95">
+        <v>10</v>
+      </c>
+      <c r="F26" s="78">
+        <v>105000</v>
+      </c>
+      <c r="G26" s="78">
+        <v>897.22222222222229</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="72">
+        <v>44681</v>
+      </c>
+      <c r="B27" s="72">
+        <v>44681</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" s="6">
+        <v>1</v>
+      </c>
+      <c r="E27" s="95">
+        <v>10</v>
+      </c>
+      <c r="F27" s="74">
+        <v>111805.55555555556</v>
+      </c>
+      <c r="G27" s="74">
+        <v>508.52623456790127</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="96">
+        <v>44712</v>
+      </c>
+      <c r="B28" s="96">
+        <v>44712</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28" s="53">
+        <v>1</v>
+      </c>
+      <c r="E28" s="95">
+        <v>15</v>
+      </c>
+      <c r="F28" s="74">
+        <v>110904.16666666667</v>
+      </c>
+      <c r="G28" s="74">
+        <v>338.87384259259261</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="112" t="s">
+        <v>56</v>
+      </c>
+      <c r="B31" s="113"/>
+      <c r="C31" s="113"/>
+      <c r="D31" s="113"/>
+      <c r="E31" s="113"/>
+      <c r="F31" s="113"/>
+      <c r="G31" s="113"/>
+      <c r="H31" s="114"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="98" t="s">
+        <v>76</v>
+      </c>
+      <c r="B34" s="98" t="s">
+        <v>77</v>
+      </c>
+      <c r="C34" s="99" t="s">
+        <v>78</v>
+      </c>
+      <c r="D34" s="100" t="s">
+        <v>79</v>
+      </c>
+      <c r="E34" s="98" t="s">
+        <v>80</v>
+      </c>
+      <c r="F34" s="98" t="s">
+        <v>81</v>
+      </c>
+      <c r="G34" s="98" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="6">
+        <v>20220131</v>
+      </c>
+      <c r="B35" s="6">
+        <v>1</v>
+      </c>
+      <c r="C35" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E35" s="6">
+        <v>20220131</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G35" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="6">
+        <v>20220131</v>
+      </c>
+      <c r="B36" s="6">
+        <v>1</v>
+      </c>
+      <c r="C36" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E36" s="6">
+        <v>20220131</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G36" s="6">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="6">
+        <v>20220228</v>
+      </c>
+      <c r="B37" s="6">
+        <v>1</v>
+      </c>
+      <c r="C37" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E37" s="6">
+        <v>20220215</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G37" s="6">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="6">
+        <v>20220228</v>
+      </c>
+      <c r="B38" s="6">
+        <v>1</v>
+      </c>
+      <c r="C38" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E38" s="6">
+        <v>20220228</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G38" s="6">
+        <v>797.22219999999993</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="6">
+        <v>20220331</v>
+      </c>
+      <c r="B39" s="6">
+        <v>1</v>
+      </c>
+      <c r="C39" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E39" s="6">
+        <v>20220325</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G39" s="6">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="6">
+        <v>20220331</v>
+      </c>
+      <c r="B40" s="6">
+        <v>1</v>
+      </c>
+      <c r="C40" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E40" s="6">
+        <v>20220315</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G40" s="6">
+        <v>-1305.5554999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="6">
+        <v>20220331</v>
+      </c>
+      <c r="B41" s="6">
+        <v>1</v>
+      </c>
+      <c r="C41" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E41" s="6">
+        <v>20220315</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G41" s="6">
+        <v>-194.44450000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="6">
+        <v>20220331</v>
+      </c>
+      <c r="B42" s="6">
+        <v>1</v>
+      </c>
+      <c r="C42" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E42" s="6">
+        <v>20220315</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G42" s="6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="6">
+        <v>20220331</v>
+      </c>
+      <c r="B43" s="6">
+        <v>1</v>
+      </c>
+      <c r="C43" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E43" s="6">
+        <v>20220331</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G43" s="6">
+        <v>916.8596</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="6">
+        <v>20220430</v>
+      </c>
+      <c r="B44" s="6">
+        <v>1</v>
+      </c>
+      <c r="C44" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E44" s="6">
+        <v>20220420</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G44" s="6">
+        <v>-1098.6112000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="6">
+        <v>20220430</v>
+      </c>
+      <c r="B45" s="6">
+        <v>1</v>
+      </c>
+      <c r="C45" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E45" s="6">
+        <v>20220420</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G45" s="6">
+        <v>-901.38879999999995</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="6">
+        <v>20220430</v>
+      </c>
+      <c r="B46" s="6">
+        <v>1</v>
+      </c>
+      <c r="C46" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E46" s="6">
+        <v>20220420</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G46" s="6">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="6">
+        <v>20220430</v>
+      </c>
+      <c r="B47" s="6">
+        <v>1</v>
+      </c>
+      <c r="C47" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E47" s="6">
+        <v>20220430</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G47" s="6">
+        <v>928.95869999999991</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="6">
+        <v>20220531</v>
+      </c>
+      <c r="B48" s="6">
+        <v>1</v>
+      </c>
+      <c r="C48" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E48" s="6">
+        <v>20220531</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G48" s="6">
+        <v>233.62620000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="6">
+        <v>20220531</v>
+      </c>
+      <c r="B49" s="6">
+        <v>1</v>
+      </c>
+      <c r="C49" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E49" s="6">
+        <v>20220531</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G49" s="6">
+        <v>1095.8333</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="6">
+        <v>20220531</v>
+      </c>
+      <c r="B50" s="6">
+        <v>1</v>
+      </c>
+      <c r="C50" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E50" s="6">
+        <v>20220531</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G50" s="6">
+        <v>1460.8212000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A31:H31"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5994F23D-8A0B-4954-A599-9A692FE349D9}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
   <dimension ref="A1:XFD59"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="E58" sqref="E58"/>
+    <sheetView topLeftCell="F29" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18322,7 +19190,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -18330,7 +19198,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -18498,830 +19366,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A6CC70E-CB82-4754-868F-6D9B4E3FC2C9}">
-  <sheetPr>
-    <tabColor rgb="FFFFC000"/>
-  </sheetPr>
-  <dimension ref="A1:I49"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16.7109375" style="49" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" style="49" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.7109375" style="49" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.140625" style="49" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.7109375" style="49" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="38.140625" style="49" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="52.140625" style="49" customWidth="1"/>
-    <col min="8" max="8" width="57.28515625" style="49" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="49"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="112" t="s">
-        <v>55</v>
-      </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="114"/>
-    </row>
-    <row r="3" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="A3" s="83" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="80" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="71" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="104" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="105" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="106" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" s="107" t="s">
-        <v>32</v>
-      </c>
-      <c r="H5" s="106" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="76">
-        <v>44712</v>
-      </c>
-      <c r="B6" s="73">
-        <v>44592</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="6">
-        <v>1</v>
-      </c>
-      <c r="E6" s="108"/>
-      <c r="F6" s="108"/>
-      <c r="G6" s="74">
-        <v>100000</v>
-      </c>
-      <c r="H6" s="75">
-        <v>100</v>
-      </c>
-      <c r="I6" s="49">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="76">
-        <v>44712</v>
-      </c>
-      <c r="B7" s="77">
-        <v>44607</v>
-      </c>
-      <c r="C7" s="69" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="69">
-        <v>1</v>
-      </c>
-      <c r="E7" s="102"/>
-      <c r="F7" s="79">
-        <v>5000</v>
-      </c>
-      <c r="G7" s="78"/>
-      <c r="H7" s="79"/>
-      <c r="I7" s="49">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="72">
-        <v>44712</v>
-      </c>
-      <c r="B8" s="73">
-        <v>44635</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="6">
-        <v>1</v>
-      </c>
-      <c r="E8" s="74">
-        <v>1500</v>
-      </c>
-      <c r="F8" s="74"/>
-      <c r="G8" s="75"/>
-      <c r="H8" s="75"/>
-      <c r="I8" s="49">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="72">
-        <v>44712</v>
-      </c>
-      <c r="B9" s="73">
-        <v>44645</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="6">
-        <v>1</v>
-      </c>
-      <c r="E9" s="74"/>
-      <c r="F9" s="75">
-        <v>7000</v>
-      </c>
-      <c r="G9" s="74"/>
-      <c r="H9" s="74"/>
-      <c r="I9" s="49">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="72">
-        <v>44712</v>
-      </c>
-      <c r="B10" s="73">
-        <v>44671</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="53">
-        <v>1</v>
-      </c>
-      <c r="E10" s="74">
-        <v>2000</v>
-      </c>
-      <c r="F10" s="74"/>
-      <c r="G10" s="75"/>
-      <c r="H10" s="75"/>
-      <c r="I10" s="49">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="A12" s="83" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="84" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="85" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="71" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" s="71" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" s="87" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" s="88" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="89">
-        <v>44620</v>
-      </c>
-      <c r="B15" s="89">
-        <v>44607</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="6">
-        <v>1</v>
-      </c>
-      <c r="E15" s="101"/>
-      <c r="F15" s="91">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="89">
-        <v>44651</v>
-      </c>
-      <c r="B16" s="90">
-        <v>44635</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" s="6">
-        <v>1</v>
-      </c>
-      <c r="E16" s="91">
-        <v>1500</v>
-      </c>
-      <c r="F16" s="91"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="89">
-        <v>44651</v>
-      </c>
-      <c r="B17" s="90">
-        <v>44645</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" s="6">
-        <v>1</v>
-      </c>
-      <c r="E17" s="91"/>
-      <c r="F17" s="91">
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="89">
-        <v>44681</v>
-      </c>
-      <c r="B18" s="90">
-        <v>44671</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" s="53">
-        <v>1</v>
-      </c>
-      <c r="E18" s="91">
-        <v>2000</v>
-      </c>
-      <c r="F18" s="91"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="92"/>
-      <c r="B19" s="93"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="53"/>
-      <c r="E19" s="94"/>
-      <c r="F19" s="94"/>
-    </row>
-    <row r="21" spans="1:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="A21" s="83" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="80" t="s">
-        <v>31</v>
-      </c>
-      <c r="B23" s="85" t="s">
-        <v>18</v>
-      </c>
-      <c r="C23" s="81" t="s">
-        <v>4</v>
-      </c>
-      <c r="D23" s="81" t="s">
-        <v>5</v>
-      </c>
-      <c r="E23" s="81" t="s">
-        <v>26</v>
-      </c>
-      <c r="F23" s="81" t="s">
-        <v>32</v>
-      </c>
-      <c r="G23" s="82" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="76">
-        <v>44620</v>
-      </c>
-      <c r="B24" s="76">
-        <v>44620</v>
-      </c>
-      <c r="C24" s="69" t="s">
-        <v>29</v>
-      </c>
-      <c r="D24" s="69">
-        <v>1</v>
-      </c>
-      <c r="E24" s="97">
-        <v>10</v>
-      </c>
-      <c r="F24" s="78">
-        <v>100000</v>
-      </c>
-      <c r="G24" s="78">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="72">
-        <v>44651</v>
-      </c>
-      <c r="B25" s="72">
-        <v>44651</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D25" s="6">
-        <v>1</v>
-      </c>
-      <c r="E25" s="95">
-        <v>10</v>
-      </c>
-      <c r="F25" s="78">
-        <v>105000</v>
-      </c>
-      <c r="G25" s="78">
-        <v>897.22222222222229</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="72">
-        <v>44681</v>
-      </c>
-      <c r="B26" s="72">
-        <v>44681</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D26" s="6">
-        <v>1</v>
-      </c>
-      <c r="E26" s="95">
-        <v>10</v>
-      </c>
-      <c r="F26" s="74">
-        <v>111805.55555555556</v>
-      </c>
-      <c r="G26" s="74">
-        <v>508.52623456790127</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="96">
-        <v>44712</v>
-      </c>
-      <c r="B27" s="96">
-        <v>44712</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D27" s="53">
-        <v>1</v>
-      </c>
-      <c r="E27" s="95">
-        <v>15</v>
-      </c>
-      <c r="F27" s="74">
-        <v>110904.16666666667</v>
-      </c>
-      <c r="G27" s="74">
-        <v>338.87384259259261</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="112" t="s">
-        <v>56</v>
-      </c>
-      <c r="B30" s="113"/>
-      <c r="C30" s="113"/>
-      <c r="D30" s="113"/>
-      <c r="E30" s="113"/>
-      <c r="F30" s="113"/>
-      <c r="G30" s="113"/>
-      <c r="H30" s="114"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="98" t="s">
-        <v>76</v>
-      </c>
-      <c r="B33" s="98" t="s">
-        <v>77</v>
-      </c>
-      <c r="C33" s="99" t="s">
-        <v>78</v>
-      </c>
-      <c r="D33" s="100" t="s">
-        <v>79</v>
-      </c>
-      <c r="E33" s="98" t="s">
-        <v>80</v>
-      </c>
-      <c r="F33" s="98" t="s">
-        <v>81</v>
-      </c>
-      <c r="G33" s="98" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="6">
-        <v>20220131</v>
-      </c>
-      <c r="B34" s="6">
-        <v>1</v>
-      </c>
-      <c r="C34" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="E34" s="6">
-        <v>20220131</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="G34" s="6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="6">
-        <v>20220131</v>
-      </c>
-      <c r="B35" s="6">
-        <v>1</v>
-      </c>
-      <c r="C35" s="40" t="s">
-        <v>60</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="E35" s="6">
-        <v>20220131</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="G35" s="6">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="6">
-        <v>20220228</v>
-      </c>
-      <c r="B36" s="6">
-        <v>1</v>
-      </c>
-      <c r="C36" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="E36" s="6">
-        <v>20220215</v>
-      </c>
-      <c r="F36" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="G36" s="6">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="6">
-        <v>20220228</v>
-      </c>
-      <c r="B37" s="6">
-        <v>1</v>
-      </c>
-      <c r="C37" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="E37" s="6">
-        <v>20220228</v>
-      </c>
-      <c r="F37" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="G37" s="6">
-        <v>797.22219999999993</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="6">
-        <v>20220331</v>
-      </c>
-      <c r="B38" s="6">
-        <v>1</v>
-      </c>
-      <c r="C38" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="E38" s="6">
-        <v>20220325</v>
-      </c>
-      <c r="F38" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="G38" s="6">
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="6">
-        <v>20220331</v>
-      </c>
-      <c r="B39" s="6">
-        <v>1</v>
-      </c>
-      <c r="C39" s="40" t="s">
-        <v>63</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="E39" s="6">
-        <v>20220315</v>
-      </c>
-      <c r="F39" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="G39" s="6">
-        <v>-1305.5554999999999</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="6">
-        <v>20220331</v>
-      </c>
-      <c r="B40" s="6">
-        <v>1</v>
-      </c>
-      <c r="C40" s="40" t="s">
-        <v>64</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="E40" s="6">
-        <v>20220315</v>
-      </c>
-      <c r="F40" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="G40" s="6">
-        <v>-194.44450000000001</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="6">
-        <v>20220331</v>
-      </c>
-      <c r="B41" s="6">
-        <v>1</v>
-      </c>
-      <c r="C41" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="E41" s="6">
-        <v>20220315</v>
-      </c>
-      <c r="F41" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="G41" s="6">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="6">
-        <v>20220331</v>
-      </c>
-      <c r="B42" s="6">
-        <v>1</v>
-      </c>
-      <c r="C42" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="E42" s="6">
-        <v>20220331</v>
-      </c>
-      <c r="F42" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="G42" s="6">
-        <v>916.8596</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="6">
-        <v>20220430</v>
-      </c>
-      <c r="B43" s="6">
-        <v>1</v>
-      </c>
-      <c r="C43" s="40" t="s">
-        <v>63</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="E43" s="6">
-        <v>20220420</v>
-      </c>
-      <c r="F43" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="G43" s="6">
-        <v>-1098.6112000000001</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="6">
-        <v>20220430</v>
-      </c>
-      <c r="B44" s="6">
-        <v>1</v>
-      </c>
-      <c r="C44" s="40" t="s">
-        <v>64</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="E44" s="6">
-        <v>20220420</v>
-      </c>
-      <c r="F44" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="G44" s="6">
-        <v>-901.38879999999995</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="6">
-        <v>20220430</v>
-      </c>
-      <c r="B45" s="6">
-        <v>1</v>
-      </c>
-      <c r="C45" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="E45" s="6">
-        <v>20220420</v>
-      </c>
-      <c r="F45" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="G45" s="6">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="6">
-        <v>20220430</v>
-      </c>
-      <c r="B46" s="6">
-        <v>1</v>
-      </c>
-      <c r="C46" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="E46" s="6">
-        <v>20220430</v>
-      </c>
-      <c r="F46" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="G46" s="6">
-        <v>928.95869999999991</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="6">
-        <v>20220531</v>
-      </c>
-      <c r="B47" s="6">
-        <v>1</v>
-      </c>
-      <c r="C47" s="40" t="s">
-        <v>66</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="E47" s="6">
-        <v>20220531</v>
-      </c>
-      <c r="F47" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="G47" s="6">
-        <v>233.62620000000001</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="6">
-        <v>20220531</v>
-      </c>
-      <c r="B48" s="6">
-        <v>1</v>
-      </c>
-      <c r="C48" s="40" t="s">
-        <v>67</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="E48" s="6">
-        <v>20220531</v>
-      </c>
-      <c r="F48" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="G48" s="6">
-        <v>1095.8333</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="6">
-        <v>20220531</v>
-      </c>
-      <c r="B49" s="6">
-        <v>1</v>
-      </c>
-      <c r="C49" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="E49" s="6">
-        <v>20220531</v>
-      </c>
-      <c r="F49" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="G49" s="6">
-        <v>1460.8212000000001</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A30:H30"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>